--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y306"/>
+  <dimension ref="A1:Y311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20548,6 +20548,405 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>340.475</v>
+      </c>
+      <c r="C307" t="n">
+        <v>335.505</v>
+      </c>
+      <c r="D307" t="n">
+        <v>324.105</v>
+      </c>
+      <c r="E307" t="n">
+        <v>327.115</v>
+      </c>
+      <c r="F307" t="n">
+        <v>322.655</v>
+      </c>
+      <c r="G307" t="n">
+        <v>325.135</v>
+      </c>
+      <c r="H307" t="n">
+        <v>332.205</v>
+      </c>
+      <c r="I307" t="n">
+        <v>336.8381818181818</v>
+      </c>
+      <c r="J307" t="n">
+        <v>335.7305263157895</v>
+      </c>
+      <c r="K307" t="n">
+        <v>331.62</v>
+      </c>
+      <c r="L307" t="n">
+        <v>339.1680722891566</v>
+      </c>
+      <c r="M307" t="n">
+        <v>336.1425</v>
+      </c>
+      <c r="N307" t="n">
+        <v>332.2282758620689</v>
+      </c>
+      <c r="O307" t="n">
+        <v>344.6025</v>
+      </c>
+      <c r="P307" t="n">
+        <v>343.59</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>344.4823529411765</v>
+      </c>
+      <c r="R307" t="n">
+        <v>332.4484615384615</v>
+      </c>
+      <c r="S307" t="n">
+        <v>348.06</v>
+      </c>
+      <c r="T307" t="n">
+        <v>341.23</v>
+      </c>
+      <c r="U307" t="n">
+        <v>330.72</v>
+      </c>
+      <c r="V307" t="n">
+        <v>322.07</v>
+      </c>
+      <c r="W307" t="n">
+        <v>334.42</v>
+      </c>
+      <c r="X307" t="n">
+        <v>341.68</v>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>352.485</v>
+      </c>
+      <c r="C308" t="n">
+        <v>339.705</v>
+      </c>
+      <c r="D308" t="n">
+        <v>345.725</v>
+      </c>
+      <c r="E308" t="n">
+        <v>324.065</v>
+      </c>
+      <c r="F308" t="n">
+        <v>325.505</v>
+      </c>
+      <c r="G308" t="n">
+        <v>324.145</v>
+      </c>
+      <c r="H308" t="n">
+        <v>340.575</v>
+      </c>
+      <c r="I308" t="n">
+        <v>335.0236363636364</v>
+      </c>
+      <c r="J308" t="n">
+        <v>336.0794736842105</v>
+      </c>
+      <c r="K308" t="n">
+        <v>346.4557142857143</v>
+      </c>
+      <c r="L308" t="n">
+        <v>343.2479518072289</v>
+      </c>
+      <c r="M308" t="n">
+        <v>347.5075</v>
+      </c>
+      <c r="N308" t="n">
+        <v>332.9303448275862</v>
+      </c>
+      <c r="O308" t="n">
+        <v>351.0875</v>
+      </c>
+      <c r="P308" t="n">
+        <v>350.9071428571428</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>356.0729411764706</v>
+      </c>
+      <c r="R308" t="n">
+        <v>353.3761538461538</v>
+      </c>
+      <c r="S308" t="n">
+        <v>355.8766666666667</v>
+      </c>
+      <c r="T308" t="n">
+        <v>339.6966666666667</v>
+      </c>
+      <c r="U308" t="n">
+        <v>329.4</v>
+      </c>
+      <c r="V308" t="n">
+        <v>331.79</v>
+      </c>
+      <c r="W308" t="n">
+        <v>333.8366666666666</v>
+      </c>
+      <c r="X308" t="n">
+        <v>347.2528571428572</v>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>344.735</v>
+      </c>
+      <c r="C309" t="n">
+        <v>343.675</v>
+      </c>
+      <c r="D309" t="n">
+        <v>336.785</v>
+      </c>
+      <c r="E309" t="n">
+        <v>325.055</v>
+      </c>
+      <c r="F309" t="n">
+        <v>303.995</v>
+      </c>
+      <c r="G309" t="n">
+        <v>320.225</v>
+      </c>
+      <c r="H309" t="n">
+        <v>335.085</v>
+      </c>
+      <c r="I309" t="n">
+        <v>338.3209090909091</v>
+      </c>
+      <c r="J309" t="n">
+        <v>326.8942105263158</v>
+      </c>
+      <c r="K309" t="n">
+        <v>329.4014285714285</v>
+      </c>
+      <c r="L309" t="n">
+        <v>327.7210843373494</v>
+      </c>
+      <c r="M309" t="n">
+        <v>331.5825</v>
+      </c>
+      <c r="N309" t="n">
+        <v>329.9558620689656</v>
+      </c>
+      <c r="O309" t="n">
+        <v>328.3325</v>
+      </c>
+      <c r="P309" t="n">
+        <v>333.2742857142857</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>329.0176470588235</v>
+      </c>
+      <c r="R309" t="n">
+        <v>326.1238461538462</v>
+      </c>
+      <c r="S309" t="n">
+        <v>352.9566666666666</v>
+      </c>
+      <c r="T309" t="n">
+        <v>343.6666666666667</v>
+      </c>
+      <c r="U309" t="n">
+        <v>345.29</v>
+      </c>
+      <c r="V309" t="n">
+        <v>336.95</v>
+      </c>
+      <c r="W309" t="n">
+        <v>337.7866666666667</v>
+      </c>
+      <c r="X309" t="n">
+        <v>353.6357142857143</v>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>337.55</v>
+      </c>
+      <c r="C310" t="n">
+        <v>331.06</v>
+      </c>
+      <c r="D310" t="n">
+        <v>323.65</v>
+      </c>
+      <c r="E310" t="n">
+        <v>332.51</v>
+      </c>
+      <c r="F310" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="G310" t="n">
+        <v>325.86</v>
+      </c>
+      <c r="H310" t="n">
+        <v>333.31</v>
+      </c>
+      <c r="I310" t="n">
+        <v>336.0609090909091</v>
+      </c>
+      <c r="J310" t="n">
+        <v>337.57</v>
+      </c>
+      <c r="K310" t="n">
+        <v>339.6128571428571</v>
+      </c>
+      <c r="L310" t="n">
+        <v>341.7930120481928</v>
+      </c>
+      <c r="M310" t="n">
+        <v>334.005</v>
+      </c>
+      <c r="N310" t="n">
+        <v>304.1893103448276</v>
+      </c>
+      <c r="O310" t="n">
+        <v>299.765</v>
+      </c>
+      <c r="P310" t="n">
+        <v>315.4885714285714</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>326.5776470588235</v>
+      </c>
+      <c r="R310" t="n">
+        <v>307.3423076923077</v>
+      </c>
+      <c r="S310" t="n">
+        <v>330.7333333333333</v>
+      </c>
+      <c r="T310" t="n">
+        <v>334.5633333333333</v>
+      </c>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="n">
+        <v>325.6714285714286</v>
+      </c>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>347.75</v>
+      </c>
+      <c r="C311" t="n">
+        <v>337.81</v>
+      </c>
+      <c r="D311" t="n">
+        <v>332.2</v>
+      </c>
+      <c r="E311" t="n">
+        <v>336.36</v>
+      </c>
+      <c r="F311" t="n">
+        <v>318.44</v>
+      </c>
+      <c r="G311" t="n">
+        <v>332.45</v>
+      </c>
+      <c r="H311" t="n">
+        <v>338.45</v>
+      </c>
+      <c r="I311" t="n">
+        <v>328.52</v>
+      </c>
+      <c r="J311" t="n">
+        <v>328.0831578947368</v>
+      </c>
+      <c r="K311" t="n">
+        <v>323.5728571428571</v>
+      </c>
+      <c r="L311" t="n">
+        <v>325.6814457831325</v>
+      </c>
+      <c r="M311" t="n">
+        <v>318.63</v>
+      </c>
+      <c r="N311" t="n">
+        <v>317.2689655172414</v>
+      </c>
+      <c r="O311" t="n">
+        <v>314.85</v>
+      </c>
+      <c r="P311" t="n">
+        <v>330.2285714285714</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>326.0817647058823</v>
+      </c>
+      <c r="R311" t="n">
+        <v>321.803076923077</v>
+      </c>
+      <c r="S311" t="n">
+        <v>342.6533333333334</v>
+      </c>
+      <c r="T311" t="n">
+        <v>350.0533333333333</v>
+      </c>
+      <c r="U311" t="n">
+        <v>347.62</v>
+      </c>
+      <c r="V311" t="n">
+        <v>328.08</v>
+      </c>
+      <c r="W311" t="n">
+        <v>330.7533333333333</v>
+      </c>
+      <c r="X311" t="n">
+        <v>353.1314285714286</v>
+      </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20559,7 +20958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23867,6 +24266,56 @@
       </c>
       <c r="B330" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -24029,28 +24478,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.7097189787579402</v>
+        <v>0.7045249178251595</v>
       </c>
       <c r="J2" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0410388765570382</v>
+        <v>0.04278267777502254</v>
       </c>
       <c r="M2" t="n">
-        <v>17.66140201282903</v>
+        <v>17.30853911540496</v>
       </c>
       <c r="N2" t="n">
-        <v>609.8529967318898</v>
+        <v>593.7962277532657</v>
       </c>
       <c r="O2" t="n">
-        <v>24.69520189696553</v>
+        <v>24.36793441704212</v>
       </c>
       <c r="P2" t="n">
-        <v>327.7785919921238</v>
+        <v>327.827939535084</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24100,28 +24549,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.09655421929470914</v>
+        <v>0.1350295903564669</v>
       </c>
       <c r="J3" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001180394530459372</v>
+        <v>0.002405886162179294</v>
       </c>
       <c r="M3" t="n">
-        <v>16.07484367531351</v>
+        <v>15.81816207461439</v>
       </c>
       <c r="N3" t="n">
-        <v>420.7451984942415</v>
+        <v>412.8100051716592</v>
       </c>
       <c r="O3" t="n">
-        <v>20.51207445614025</v>
+        <v>20.31772637800941</v>
       </c>
       <c r="P3" t="n">
-        <v>326.4749445219641</v>
+        <v>326.1092019424872</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24177,28 +24626,28 @@
         <v>0.0931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1516747779172523</v>
+        <v>0.1874169746101451</v>
       </c>
       <c r="J4" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005006475020709167</v>
+        <v>0.007883293998826479</v>
       </c>
       <c r="M4" t="n">
-        <v>11.77180364288603</v>
+        <v>11.66627055204484</v>
       </c>
       <c r="N4" t="n">
-        <v>240.5795657418283</v>
+        <v>238.0777436032995</v>
       </c>
       <c r="O4" t="n">
-        <v>15.51062750960864</v>
+        <v>15.42976809946603</v>
       </c>
       <c r="P4" t="n">
-        <v>320.4685834058045</v>
+        <v>320.1262288470674</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24248,28 +24697,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.4632385377273018</v>
+        <v>0.4674190660721406</v>
       </c>
       <c r="J5" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06265433073741422</v>
+        <v>0.06772949154165964</v>
       </c>
       <c r="M5" t="n">
-        <v>10.0760825292217</v>
+        <v>9.872604159394266</v>
       </c>
       <c r="N5" t="n">
-        <v>182.2556795544362</v>
+        <v>176.7350074072806</v>
       </c>
       <c r="O5" t="n">
-        <v>13.50021035222919</v>
+        <v>13.29417193386939</v>
       </c>
       <c r="P5" t="n">
-        <v>316.7570745776608</v>
+        <v>316.7188744666637</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24319,28 +24768,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.3370585537059677</v>
+        <v>0.4355403334437063</v>
       </c>
       <c r="J6" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006704707356777972</v>
+        <v>0.01162464799044738</v>
       </c>
       <c r="M6" t="n">
-        <v>26.97899146670505</v>
+        <v>26.75838581198475</v>
       </c>
       <c r="N6" t="n">
-        <v>925.7471344448494</v>
+        <v>914.0646397826874</v>
       </c>
       <c r="O6" t="n">
-        <v>30.42609298685668</v>
+        <v>30.23350194374921</v>
       </c>
       <c r="P6" t="n">
-        <v>291.466310606189</v>
+        <v>290.5819868312055</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24390,28 +24839,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.1621954521800411</v>
+        <v>0.2062245646526865</v>
       </c>
       <c r="J7" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002527371421309765</v>
+        <v>0.004257033886295281</v>
       </c>
       <c r="M7" t="n">
-        <v>17.81033413313532</v>
+        <v>17.54740928213666</v>
       </c>
       <c r="N7" t="n">
-        <v>537.2825653953465</v>
+        <v>527.4247993210487</v>
       </c>
       <c r="O7" t="n">
-        <v>23.17935644911969</v>
+        <v>22.96573097728545</v>
       </c>
       <c r="P7" t="n">
-        <v>311.5668552338051</v>
+        <v>311.1418286715736</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24467,28 +24916,28 @@
         <v>0.0902</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.231827119508588</v>
+        <v>-0.1565885218581697</v>
       </c>
       <c r="J8" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005848079334706324</v>
+        <v>0.002768019194795635</v>
       </c>
       <c r="M8" t="n">
-        <v>15.70946629030018</v>
+        <v>15.58539549496116</v>
       </c>
       <c r="N8" t="n">
-        <v>468.2239280890333</v>
+        <v>463.4180538669352</v>
       </c>
       <c r="O8" t="n">
-        <v>21.63848257362409</v>
+        <v>21.52714690494156</v>
       </c>
       <c r="P8" t="n">
-        <v>325.136668571291</v>
+        <v>324.3974105222195</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24544,28 +24993,28 @@
         <v>0.066</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01837018229227788</v>
+        <v>0.04430108161222852</v>
       </c>
       <c r="J9" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L9" t="n">
-        <v>3.695284372995378e-05</v>
+        <v>0.0002269346153869201</v>
       </c>
       <c r="M9" t="n">
-        <v>13.34530340295342</v>
+        <v>13.0642426727962</v>
       </c>
       <c r="N9" t="n">
-        <v>510.0399712489059</v>
+        <v>496.1286149378374</v>
       </c>
       <c r="O9" t="n">
-        <v>22.58406454225868</v>
+        <v>22.27394475475409</v>
       </c>
       <c r="P9" t="n">
-        <v>329.5114979894679</v>
+        <v>329.2729305866639</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24621,28 +25070,28 @@
         <v>0.1194</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1426846791789183</v>
+        <v>-0.04880525570739445</v>
       </c>
       <c r="J10" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001791169279260485</v>
+        <v>0.0002181342456268887</v>
       </c>
       <c r="M10" t="n">
-        <v>19.28023603276511</v>
+        <v>19.07634364504977</v>
       </c>
       <c r="N10" t="n">
-        <v>575.9142432926662</v>
+        <v>569.2408414715678</v>
       </c>
       <c r="O10" t="n">
-        <v>23.998213335427</v>
+        <v>23.85876864952523</v>
       </c>
       <c r="P10" t="n">
-        <v>318.1737440013934</v>
+        <v>317.2482385888753</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -24692,28 +25141,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1207843300257132</v>
+        <v>0.009063002264089844</v>
       </c>
       <c r="J11" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K11" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001056842083513976</v>
+        <v>6.084607681589027e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>22.96346957240555</v>
+        <v>22.92607141857292</v>
       </c>
       <c r="N11" t="n">
-        <v>689.9215325217743</v>
+        <v>691.4420307507904</v>
       </c>
       <c r="O11" t="n">
-        <v>26.26635742773966</v>
+        <v>26.29528533313131</v>
       </c>
       <c r="P11" t="n">
-        <v>309.9753191356826</v>
+        <v>308.669126506864</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -24763,28 +25212,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.2878787359755042</v>
+        <v>-0.1611027270439701</v>
       </c>
       <c r="J12" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K12" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006248300041109212</v>
+        <v>0.002026736399205697</v>
       </c>
       <c r="M12" t="n">
-        <v>21.30442753033305</v>
+        <v>21.1447205213767</v>
       </c>
       <c r="N12" t="n">
-        <v>701.2914925191956</v>
+        <v>698.8599511824684</v>
       </c>
       <c r="O12" t="n">
-        <v>26.48190877786561</v>
+        <v>26.4359594337423</v>
       </c>
       <c r="P12" t="n">
-        <v>318.0792819754321</v>
+        <v>316.874624951802</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -24840,28 +25289,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.141420065324852</v>
+        <v>-0.8566729821480894</v>
       </c>
       <c r="J13" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K13" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02612221037678475</v>
+        <v>0.01493374416733884</v>
       </c>
       <c r="M13" t="n">
-        <v>46.00305423617322</v>
+        <v>46.47809600206959</v>
       </c>
       <c r="N13" t="n">
-        <v>2546.694576079455</v>
+        <v>2580.544314710491</v>
       </c>
       <c r="O13" t="n">
-        <v>50.4647855051367</v>
+        <v>50.79905820692437</v>
       </c>
       <c r="P13" t="n">
-        <v>298.7324644773414</v>
+        <v>295.8612276163109</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -24917,28 +25366,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3449876242677226</v>
+        <v>-0.2197459539276947</v>
       </c>
       <c r="J14" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K14" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008033370151916408</v>
+        <v>0.003320517468038187</v>
       </c>
       <c r="M14" t="n">
-        <v>23.79191443065463</v>
+        <v>23.92930739116276</v>
       </c>
       <c r="N14" t="n">
-        <v>785.2891971400664</v>
+        <v>789.7633559872966</v>
       </c>
       <c r="O14" t="n">
-        <v>28.0230119212776</v>
+        <v>28.10272862174235</v>
       </c>
       <c r="P14" t="n">
-        <v>301.7054194935989</v>
+        <v>300.4947565031526</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -24988,28 +25437,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1740180552659897</v>
+        <v>-0.06153363353869281</v>
       </c>
       <c r="J15" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K15" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002170644421689572</v>
+        <v>0.000273247072910765</v>
       </c>
       <c r="M15" t="n">
-        <v>23.46185291052979</v>
+        <v>23.62384406586769</v>
       </c>
       <c r="N15" t="n">
-        <v>766.1577180280341</v>
+        <v>775.0398661191134</v>
       </c>
       <c r="O15" t="n">
-        <v>27.67955415153998</v>
+        <v>27.83953782157874</v>
       </c>
       <c r="P15" t="n">
-        <v>302.7370478307386</v>
+        <v>301.6596631784976</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -25065,28 +25514,28 @@
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.153455072695505</v>
+        <v>0.01583744028047266</v>
       </c>
       <c r="J16" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K16" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00081569906353407</v>
+        <v>8.915136940790269e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>34.10817655454723</v>
+        <v>34.07000082280914</v>
       </c>
       <c r="N16" t="n">
-        <v>1620.403538679593</v>
+        <v>1614.553259364908</v>
       </c>
       <c r="O16" t="n">
-        <v>40.25423628240379</v>
+        <v>40.18150394603104</v>
       </c>
       <c r="P16" t="n">
-        <v>301.7759844885666</v>
+        <v>300.1958665342873</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -25136,28 +25585,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-1.054584304796268</v>
+        <v>-0.8202334866751724</v>
       </c>
       <c r="J17" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K17" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05138158647231628</v>
+        <v>0.0312883396480077</v>
       </c>
       <c r="M17" t="n">
-        <v>28.67310297457793</v>
+        <v>29.6813908588778</v>
       </c>
       <c r="N17" t="n">
-        <v>1086.042963259597</v>
+        <v>1124.866192268929</v>
       </c>
       <c r="O17" t="n">
-        <v>32.95516595709384</v>
+        <v>33.53902491529724</v>
       </c>
       <c r="P17" t="n">
-        <v>311.2277799986598</v>
+        <v>308.935482659638</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -25207,28 +25656,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.1834570501949961</v>
+        <v>-0.1388241953032722</v>
       </c>
       <c r="J18" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K18" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008615220981143534</v>
+        <v>0.0049621778216975</v>
       </c>
       <c r="M18" t="n">
-        <v>11.22986246102597</v>
+        <v>11.33684830173033</v>
       </c>
       <c r="N18" t="n">
-        <v>205.7901041124112</v>
+        <v>208.9874930764875</v>
       </c>
       <c r="O18" t="n">
-        <v>14.34538616114642</v>
+        <v>14.45639972733486</v>
       </c>
       <c r="P18" t="n">
-        <v>320.8796818981904</v>
+        <v>320.4467666453998</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -25284,28 +25733,28 @@
         <v>0.0788</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0480948705947668</v>
+        <v>-0.02860094823870959</v>
       </c>
       <c r="J19" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K19" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006380188393617647</v>
+        <v>0.0002320652136026391</v>
       </c>
       <c r="M19" t="n">
-        <v>10.35795609575435</v>
+        <v>10.31699396275802</v>
       </c>
       <c r="N19" t="n">
-        <v>189.5566972030368</v>
+        <v>187.8223790092966</v>
       </c>
       <c r="O19" t="n">
-        <v>13.76795907907329</v>
+        <v>13.70483049910857</v>
       </c>
       <c r="P19" t="n">
-        <v>342.0731887582563</v>
+        <v>341.8834698349178</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -25361,28 +25810,28 @@
         <v>0.0834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08189759517767242</v>
+        <v>0.09006946901544088</v>
       </c>
       <c r="J20" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K20" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003089192964128573</v>
+        <v>0.003852900200258746</v>
       </c>
       <c r="M20" t="n">
-        <v>7.923879687270525</v>
+        <v>7.846800498017197</v>
       </c>
       <c r="N20" t="n">
-        <v>112.8728951882677</v>
+        <v>111.2374629142166</v>
       </c>
       <c r="O20" t="n">
-        <v>10.62416562315685</v>
+        <v>10.54691722325612</v>
       </c>
       <c r="P20" t="n">
-        <v>337.5548188006347</v>
+        <v>337.4739781588539</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -25438,28 +25887,28 @@
         <v>0.0576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1544793993949587</v>
+        <v>0.2229567677330159</v>
       </c>
       <c r="J21" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K21" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004831232927938189</v>
+        <v>0.01010222133215055</v>
       </c>
       <c r="M21" t="n">
-        <v>11.58053592309622</v>
+        <v>11.70499026542726</v>
       </c>
       <c r="N21" t="n">
-        <v>263.6368311781901</v>
+        <v>265.9669780629301</v>
       </c>
       <c r="O21" t="n">
-        <v>16.23689721523759</v>
+        <v>16.30849404644494</v>
       </c>
       <c r="P21" t="n">
-        <v>316.3156602888561</v>
+        <v>315.6553849644384</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -25509,28 +25958,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.09224583033034109</v>
+        <v>0.008227056402581791</v>
       </c>
       <c r="J22" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K22" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006875455494097515</v>
+        <v>5.526652952614342e-06</v>
       </c>
       <c r="M22" t="n">
-        <v>22.43931068122608</v>
+        <v>22.53394845108982</v>
       </c>
       <c r="N22" t="n">
-        <v>676.4778354889596</v>
+        <v>680.6043876880124</v>
       </c>
       <c r="O22" t="n">
-        <v>26.00918752073889</v>
+        <v>26.08839565186047</v>
       </c>
       <c r="P22" t="n">
-        <v>301.7121554213133</v>
+        <v>300.7599122379523</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -25586,28 +26035,28 @@
         <v>0.0926</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2299208501257132</v>
+        <v>0.2471467567560044</v>
       </c>
       <c r="J23" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K23" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008785752227138843</v>
+        <v>0.0104450218388058</v>
       </c>
       <c r="M23" t="n">
-        <v>13.36086264488398</v>
+        <v>13.19335303969937</v>
       </c>
       <c r="N23" t="n">
-        <v>308.8343868447897</v>
+        <v>304.1418353450695</v>
       </c>
       <c r="O23" t="n">
-        <v>17.57368449827155</v>
+        <v>17.43966270731947</v>
       </c>
       <c r="P23" t="n">
-        <v>323.0121268365496</v>
+        <v>322.8418048901804</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -25663,28 +26112,28 @@
         <v>0.0771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1088532154240215</v>
+        <v>0.116715344013823</v>
       </c>
       <c r="J24" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K24" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005028868580845169</v>
+        <v>0.005886744277641243</v>
       </c>
       <c r="M24" t="n">
-        <v>8.314249638132203</v>
+        <v>8.324261213446926</v>
       </c>
       <c r="N24" t="n">
-        <v>122.9748159924385</v>
+        <v>122.708132649803</v>
       </c>
       <c r="O24" t="n">
-        <v>11.08940106554175</v>
+        <v>11.07737029487608</v>
       </c>
       <c r="P24" t="n">
-        <v>339.4137083810034</v>
+        <v>339.3362558975398</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -25721,7 +26170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y306"/>
+  <dimension ref="A1:Y311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55151,6 +55600,629 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-38.58478630276081,174.6296301128446</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-38.584088771411416,174.6297531579512</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-38.58339481531332,174.62994986792967</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-38.58268776895835,174.62998197398494</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-38.58197758112864,174.63006524217218</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-38.581270834834676,174.63004066021054</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-38.58056907916216,174.6299632847829</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-38.57986715227592,174.6299138799692</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-38.579164831504094,174.62993036708207</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>-38.57846230143722,174.62998131928575</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>-38.577762783127454,174.62989835944987</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>-38.57706432989314,174.62996256830337</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>-38.57636412014672,174.6300426514125</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>-38.57565931008594,174.62993589765657</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>-38.57495780726695,174.6299827311181</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>-38.57425768629201,174.63000749288642</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>-38.5735669963284,174.63021141142912</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>-38.57285805618117,174.6301071888202</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>-38.57216121152534,174.63026018534578</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>-38.571460655270855,174.6304380363052</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>-38.570757066603996,174.63056804423607</t>
+        </is>
+      </c>
+      <c r="W307" t="inlineStr">
+        <is>
+          <t>-38.570053363120614,174.6304568182982</t>
+        </is>
+      </c>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>-38.5693504121064,174.63041044885767</t>
+        </is>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-38.58477961171763,174.62949251636456</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-38.584086431547725,174.6297050397447</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-38.58338277070098,174.62970217613307</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-38.58268894028975,174.6300169514605</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-38.58197737699703,174.63003252992613</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-38.581270768079904,174.63005202334122</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-38.580569643418514,174.62986721560767</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-38.57986702995207,174.62993470675372</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-38.57916485502708,174.62992636201244</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>-38.57846330145374,174.62981104291737</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>-38.577762528808506,174.62985153304655</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>-38.57706183160811,174.62983216464374</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>-38.576363946343285,174.63003459649335</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>-38.57565770455662,174.62986149522393</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>-38.57495599572621,174.6298987823247</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>-38.57425300145462,174.62987460030578</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>-38.573554406647425,174.62997176022785</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>-38.572853034384686,174.63001770614324</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>-38.57216206072892,174.63027774979733</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>-38.571461094624894,174.63045317516617</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>-38.57075511756121,174.6304565197449</t>
+        </is>
+      </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>-38.57005349892247,174.63046351065535</t>
+        </is>
+      </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>-38.569348934806,174.63034652058553</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-38.58478392943686,174.62958130676367</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-38.58408421980118,174.62965955658507</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-38.58338775128442,174.62980459817254</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-38.58268856008824,174.6300055981159</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-38.581978917427456,174.63027942129548</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-38.58127050374707,174.63009701674707</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-38.580569273323775,174.62993022872308</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-38.57986725222819,174.6298968616897</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-38.57916423579123,174.63003178655728</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-38.578462151870845,174.63000678285704</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-38.57776349657442,174.6300297410911</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-38.57706533224375,174.63001489040633</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-38.57636468269926,174.63006872308114</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-38.57566333793628,174.6301225634431</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-38.57496036107614,174.63010108220274</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>-38.57426393678588,174.63018480441252</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>-38.57357080099351,174.63028383709005</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>-38.57285491033887,174.63005113335956</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>-38.57215986202466,174.63023227314193</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>-38.57145580560386,174.63027093540092</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>-38.57075408284094,174.63039731538626</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>-38.57005257934247,174.63041819383707</t>
+        </is>
+      </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>-38.56934724274094,174.63027330051028</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-38.58478793232002,174.62966362406362</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-38.58409124774551,174.62980408305572</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-38.58339506879047,174.62995508068556</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-38.58268569702025,174.62992010399321</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-38.581977008462566,174.62997347571314</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-38.58127088372006,174.6300323387259</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-38.580569153659305,174.62995060181555</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-38.57986709987813,174.6299228012622</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-38.579164955503806,174.6299092543847</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-38.57846284023473,174.62988958156177</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-38.5777626195042,174.62986823197008</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-38.5770647997479,174.62998709428905</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-38.57637106098905,174.63036434574997</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>-38.575670409471165,174.63045031852977</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>-38.574964763913826,174.63030513580654</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>-38.574264922955585,174.6302127803829</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>-38.57358209903807,174.63049891191744</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>-38.57286918740659,174.63030553894336</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>-38.57216490369555,174.63033655252875</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>-38.56935465560016,174.6305940890135</t>
+        </is>
+      </c>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-38.58478224971283,174.62954676443323</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-38.5840874872744,174.6297267502209</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-38.583390305609136,174.62985712670599</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-38.58268421841601,174.62987595210063</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-38.58197788301179,174.6301136218621</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-38.581271328044195,174.62995669929848</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-38.580569500170924,174.62989160593034</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-38.57986659149235,174.63000935345374</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>-38.579164315950926,174.63001814032523</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-38.578461758907686,174.63007368006805</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-38.577763623681804,174.63005315083512</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-38.577068179253274,174.63016350927782</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-38.57636782332562,174.63021428132947</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-38.575666675478686,174.63027724823678</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>-38.57496111506528,174.63013602535713</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>-38.574265123374495,174.63021846595262</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>-38.57357340018971,174.6303333159232</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>-38.57286152963941,174.63016908260096</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>-38.57215632486117,174.63015911338843</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>-38.571455030034386,174.6302442130201</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>-38.57075586149854,174.63049908722016</t>
+        </is>
+      </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>-38.57005421672584,174.6304988845434</t>
+        </is>
+      </c>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>-38.56934737642634,174.630279085355</t>
+        </is>
+      </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -24329,7 +24329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24420,35 +24420,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24501,27 +24506,28 @@
       <c r="P2" t="n">
         <v>327.827939535084</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.63353088390605 -38.584975921535694, 174.62307085459122 -38.58446715734404)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.633530883906</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.58497592153569</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.6230708545912</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.58446715734404</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6283008692486</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.58472153943987</v>
       </c>
     </row>
@@ -24572,27 +24578,28 @@
       <c r="P3" t="n">
         <v>326.1092019424872</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.6335969512168 -38.58427562057415, 174.62313698868303 -38.58376685675907)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.6335969512168</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.58427562057415</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.623136988683</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.58376685675907</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.6283669699499</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.58402123866661</v>
       </c>
     </row>
@@ -24649,27 +24656,28 @@
       <c r="P4" t="n">
         <v>320.1262288470674</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.6336630185281 -38.5835753127835, 174.62320312277382 -38.583066549344906)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.6336630185281</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.5835753127835</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.6232031227738</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.58306654934491</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.6284330706509</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.58332093106421</v>
       </c>
     </row>
@@ -24720,27 +24728,28 @@
       <c r="P5" t="n">
         <v>316.7188744666637</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.63373334126135 -38.58281333548179, 174.6232629458422 -38.58246256615271)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.6337333412613</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.58281333548179</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.6232629458422</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.58246256615271</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6284981435518</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.58263795081724</v>
       </c>
     </row>
@@ -24791,27 +24800,28 @@
       <c r="P6" t="n">
         <v>290.5819868312055</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.63376866924128 -38.582000632172026, 174.62328910485076 -38.581935101176015)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6337686692413</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.58200063217203</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.6232891048508</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.58193510117601</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.628528887046</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.58196786667402</v>
       </c>
     </row>
@@ -24862,27 +24872,28 @@
       <c r="P7" t="n">
         <v>311.1418286715736</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.63377252716404 -38.581248851965334, 174.6232929847354 -38.581310280381885)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.633772527164</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.58124885196533</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.6232929847354</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.58131028038189</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6285327559497</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.58127956617361</v>
       </c>
     </row>
@@ -24939,27 +24950,28 @@
       <c r="P8" t="n">
         <v>324.3974105222195</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.63377626341477 -38.580546620171546, 174.62329678805952 -38.58060804723199)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.6337762634148</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.58054662017155</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.6232967880595</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.58060804723199</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6285365257372</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.58057733370177</v>
       </c>
     </row>
@@ -25016,27 +25028,28 @@
       <c r="P9" t="n">
         <v>329.2729305866639</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.63377999966607 -38.57984438151178, 174.62330059138253 -38.57990580721614)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.6337799996661</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.57984438151178</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.6233005913825</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.57990580721614</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6285402955243</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.57987509436396</v>
       </c>
     </row>
@@ -25093,27 +25106,28 @@
       <c r="P10" t="n">
         <v>317.2482385888753</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.63378373591794 -38.57914213598617, 174.6233043947044 -38.57920356033426)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.6337837359179</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.57914213598617</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.6233043947044</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.57920356033426</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.6285440653112</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.57917284816021</v>
       </c>
     </row>
@@ -25164,27 +25178,28 @@
       <c r="P11" t="n">
         <v>308.669126506864</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.6337874721704 -38.578439883594626, 174.6233081980252 -38.57850130658657)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.6337874721704</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.57843988359463</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.6233081980252</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.57850130658657</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6285478350978</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.57847059509059</v>
       </c>
     </row>
@@ -25235,27 +25250,28 @@
       <c r="P12" t="n">
         <v>316.874624951802</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.63379112540994 -38.577783859573806, 174.6233118823233 -38.57772682716016)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.6337911254099</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.57778385957381</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.6233118823233</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.57772682716016</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6285515038666</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.57775534336699</v>
       </c>
     </row>
@@ -25312,27 +25328,28 @@
       <c r="P13" t="n">
         <v>295.8612276163109</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.63381951788017 -38.577138155829324, 174.62334322662568 -38.576937332035904)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6338195178802</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.57713815582932</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.6233432266257</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.5769373320359</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.6285813722529</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.57703774393261</v>
       </c>
     </row>
@@ -25389,27 +25406,28 @@
       <c r="P14" t="n">
         <v>300.4947565031526</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.6338543473103 -38.57644630390291, 174.62337896426538 -38.57622014575984)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6338543473103</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.57644630390291</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.6233789642654</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.57622014575984</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6286166557878</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.57633322483137</v>
       </c>
     </row>
@@ -25460,27 +25478,28 @@
       <c r="P15" t="n">
         <v>301.6596631784976</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.63388952594613 -38.57574455717354, 174.62341420997328 -38.575518398544794)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.6338895259461</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.57574455717354</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.6234142099733</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.57551839854479</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.6286518679597</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.57563147785917</v>
       </c>
     </row>
@@ -25537,27 +25556,28 @@
       <c r="P16" t="n">
         <v>300.1958665342873</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.6339247045825 -38.57504280358895, 174.62344945568015 -38.5748166444744)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.6339247045825</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.57504280358895</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.6234494556801</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.5748166444744</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.6286870801313</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.57492972403168</v>
       </c>
     </row>
@@ -25608,27 +25628,28 @@
       <c r="P17" t="n">
         <v>308.935482659638</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.6339571812759 -38.574396854641655, 174.6234886189019 -38.57402769878515)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.6339571812759</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.57439685464166</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.6234886189019</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.57402769878515</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.6287229000889</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.5742122767134</v>
       </c>
     </row>
@@ -25679,27 +25700,28 @@
       <c r="P18" t="n">
         <v>320.4467666453998</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.6340184178543 -38.573766924582394, 174.62356280350156 -38.57321753857918)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.6340184178543</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.57376692458239</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.6235628035016</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.57321753857918</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.6287906106779</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.57349223158079</v>
       </c>
     </row>
@@ -25756,27 +25778,28 @@
       <c r="P19" t="n">
         <v>341.8834698349178</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.63409167752425 -38.573081596737545, 174.62363942976154 -38.572494905003474)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.6340916775243</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.57308159673754</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.6236394297615</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.57249490500347</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.6288655536429</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.57278825087051</v>
       </c>
     </row>
@@ -25833,27 +25856,28 @@
       <c r="P20" t="n">
         <v>337.4739781588539</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.63416900918858 -38.572350129167184, 174.6237099479443 -38.57184433601426)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.6341690091886</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.57235012916718</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.6237099479443</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.57184433601426</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.6289394785665</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.57209723259072</v>
       </c>
     </row>
@@ -25910,27 +25934,28 @@
       <c r="P21" t="n">
         <v>315.6553849644384</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.63423101268117 -38.57157067206214, 174.623759309038 -38.57126663610835)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.6342310126812</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-38.57157067206214</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.623759309038</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-38.57126663610835</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.6289951608596</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-38.57141865408524</v>
       </c>
     </row>
@@ -25981,27 +26006,28 @@
       <c r="P22" t="n">
         <v>300.7599122379523</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.6342633842724 -38.57082158750099, 174.6237871706117 -38.5706383679962)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.6342633842724</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-38.57082158750099</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.6237871706117</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-38.5706383679962</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.6290252774421</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-38.5707299777486</v>
       </c>
     </row>
@@ -26058,27 +26084,28 @@
       <c r="P23" t="n">
         <v>322.8418048901804</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.63429349118957 -38.570131154265354, 174.62381825179392 -38.56991846388323)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.6342934911896</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-38.57013115426535</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.6238182517939</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-38.56991846388323</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.6290558714917</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-38.5700248090743</v>
       </c>
     </row>
@@ -26135,27 +26162,28 @@
       <c r="P24" t="n">
         <v>339.3362558975398</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.63432998709206 -38.56944092071381, 174.62385585684598 -38.56919876161156)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.6343299870921</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-38.56944092071381</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.623855856846</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-38.56919876161156</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.629092921969</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-38.56931984116268</v>
       </c>
     </row>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y311"/>
+  <dimension ref="A1:Y316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20947,6 +20947,379 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>349.835</v>
+      </c>
+      <c r="C312" t="n">
+        <v>337.215</v>
+      </c>
+      <c r="D312" t="n">
+        <v>330.975</v>
+      </c>
+      <c r="E312" t="n">
+        <v>335.475</v>
+      </c>
+      <c r="F312" t="n">
+        <v>334.565</v>
+      </c>
+      <c r="G312" t="n">
+        <v>334.315</v>
+      </c>
+      <c r="H312" t="n">
+        <v>332.815</v>
+      </c>
+      <c r="I312" t="n">
+        <v>343.6336363636364</v>
+      </c>
+      <c r="J312" t="n">
+        <v>322.2626315789473</v>
+      </c>
+      <c r="K312" t="n">
+        <v>342.1285714285714</v>
+      </c>
+      <c r="L312" t="n">
+        <v>340.0693975903615</v>
+      </c>
+      <c r="M312" t="n">
+        <v>343.1775</v>
+      </c>
+      <c r="N312" t="n">
+        <v>302.1793103448276</v>
+      </c>
+      <c r="O312" t="n">
+        <v>299.3275</v>
+      </c>
+      <c r="P312" t="n">
+        <v>335.9957142857143</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>278.0547058823529</v>
+      </c>
+      <c r="R312" t="n">
+        <v>310.6492307692308</v>
+      </c>
+      <c r="S312" t="n">
+        <v>347.19</v>
+      </c>
+      <c r="T312" t="n">
+        <v>341.13</v>
+      </c>
+      <c r="U312" t="n">
+        <v>328.1</v>
+      </c>
+      <c r="V312" t="n">
+        <v>330.45</v>
+      </c>
+      <c r="W312" t="n">
+        <v>334.46</v>
+      </c>
+      <c r="X312" t="n">
+        <v>348.2642857142857</v>
+      </c>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>342.055</v>
+      </c>
+      <c r="C313" t="n">
+        <v>333.475</v>
+      </c>
+      <c r="D313" t="n">
+        <v>324.655</v>
+      </c>
+      <c r="E313" t="n">
+        <v>298.645</v>
+      </c>
+      <c r="F313" t="n">
+        <v>286.725</v>
+      </c>
+      <c r="G313" t="n">
+        <v>323.915</v>
+      </c>
+      <c r="H313" t="n">
+        <v>325.825</v>
+      </c>
+      <c r="I313" t="n">
+        <v>314.699090909091</v>
+      </c>
+      <c r="J313" t="n">
+        <v>308.7294736842105</v>
+      </c>
+      <c r="K313" t="n">
+        <v>304.7314285714286</v>
+      </c>
+      <c r="L313" t="n">
+        <v>315.7128915662651</v>
+      </c>
+      <c r="M313" t="n">
+        <v>274.2325</v>
+      </c>
+      <c r="N313" t="n">
+        <v>307.1137931034482</v>
+      </c>
+      <c r="O313" t="n">
+        <v>301.1725</v>
+      </c>
+      <c r="P313" t="n">
+        <v>304.4742857142857</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>282.3447058823529</v>
+      </c>
+      <c r="R313" t="n">
+        <v>319.6646153846154</v>
+      </c>
+      <c r="S313" t="n">
+        <v>342.39</v>
+      </c>
+      <c r="T313" t="n">
+        <v>334.61</v>
+      </c>
+      <c r="U313" t="n">
+        <v>323.4</v>
+      </c>
+      <c r="V313" t="n">
+        <v>309.27</v>
+      </c>
+      <c r="W313" t="n">
+        <v>348.4</v>
+      </c>
+      <c r="X313" t="n">
+        <v>348.7757142857143</v>
+      </c>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>327.455</v>
+      </c>
+      <c r="C314" t="n">
+        <v>328.095</v>
+      </c>
+      <c r="D314" t="n">
+        <v>329.415</v>
+      </c>
+      <c r="E314" t="n">
+        <v>334.775</v>
+      </c>
+      <c r="F314" t="n">
+        <v>321.285</v>
+      </c>
+      <c r="G314" t="n">
+        <v>320.245</v>
+      </c>
+      <c r="H314" t="n">
+        <v>333.015</v>
+      </c>
+      <c r="I314" t="n">
+        <v>331.1036363636364</v>
+      </c>
+      <c r="J314" t="n">
+        <v>301.9384210526316</v>
+      </c>
+      <c r="K314" t="n">
+        <v>298.9142857142857</v>
+      </c>
+      <c r="L314" t="n">
+        <v>341.1497590361445</v>
+      </c>
+      <c r="M314" t="n">
+        <v>256.1725</v>
+      </c>
+      <c r="N314" t="n">
+        <v>295.5065517241379</v>
+      </c>
+      <c r="O314" t="n">
+        <v>279.2825</v>
+      </c>
+      <c r="P314" t="n">
+        <v>294.6728571428571</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>268.2576470588235</v>
+      </c>
+      <c r="R314" t="n">
+        <v>308.94</v>
+      </c>
+      <c r="S314" t="n">
+        <v>351.6933333333333</v>
+      </c>
+      <c r="T314" t="n">
+        <v>343.4233333333333</v>
+      </c>
+      <c r="U314" t="n">
+        <v>333.02</v>
+      </c>
+      <c r="V314" t="n">
+        <v>278.77</v>
+      </c>
+      <c r="W314" t="n">
+        <v>345.0833333333334</v>
+      </c>
+      <c r="X314" t="n">
+        <v>350.7271428571428</v>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="n">
+        <v>224.5075</v>
+      </c>
+      <c r="N315" t="n">
+        <v>274.2013793103448</v>
+      </c>
+      <c r="O315" t="n">
+        <v>277.7875</v>
+      </c>
+      <c r="P315" t="n">
+        <v>322.8471428571429</v>
+      </c>
+      <c r="Q315" t="inlineStr"/>
+      <c r="R315" t="inlineStr"/>
+      <c r="S315" t="inlineStr"/>
+      <c r="T315" t="n">
+        <v>361.64</v>
+      </c>
+      <c r="U315" t="n">
+        <v>326.4</v>
+      </c>
+      <c r="V315" t="inlineStr"/>
+      <c r="W315" t="n">
+        <v>329.01</v>
+      </c>
+      <c r="X315" t="n">
+        <v>336.2028571428572</v>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>319.495</v>
+      </c>
+      <c r="C316" t="n">
+        <v>327.205</v>
+      </c>
+      <c r="D316" t="n">
+        <v>323.995</v>
+      </c>
+      <c r="E316" t="n">
+        <v>319.615</v>
+      </c>
+      <c r="F316" t="n">
+        <v>282.855</v>
+      </c>
+      <c r="G316" t="n">
+        <v>326.785</v>
+      </c>
+      <c r="H316" t="n">
+        <v>328.855</v>
+      </c>
+      <c r="I316" t="n">
+        <v>294.0527272727272</v>
+      </c>
+      <c r="J316" t="n">
+        <v>296.4315789473685</v>
+      </c>
+      <c r="K316" t="n">
+        <v>287.7142857142857</v>
+      </c>
+      <c r="L316" t="n">
+        <v>293.5181927710844</v>
+      </c>
+      <c r="M316" t="n">
+        <v>243.0875</v>
+      </c>
+      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="n">
+        <v>287.5475</v>
+      </c>
+      <c r="P316" t="n">
+        <v>292.4828571428571</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>278.1517647058824</v>
+      </c>
+      <c r="R316" t="n">
+        <v>321.6207692307693</v>
+      </c>
+      <c r="S316" t="n">
+        <v>354.4733333333334</v>
+      </c>
+      <c r="T316" t="n">
+        <v>345.1933333333334</v>
+      </c>
+      <c r="U316" t="n">
+        <v>330.03</v>
+      </c>
+      <c r="V316" t="n">
+        <v>299.08</v>
+      </c>
+      <c r="W316" t="n">
+        <v>353.5933333333334</v>
+      </c>
+      <c r="X316" t="n">
+        <v>348.5071428571428</v>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20958,7 +21331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24316,6 +24689,56 @@
       </c>
       <c r="B335" t="n">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -24483,28 +24906,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.7045249178251595</v>
+        <v>0.6597038488303637</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04278267777502254</v>
+        <v>0.03900001533445441</v>
       </c>
       <c r="M2" t="n">
-        <v>17.30853911540496</v>
+        <v>17.27868528656395</v>
       </c>
       <c r="N2" t="n">
-        <v>593.7962277532657</v>
+        <v>586.4370231269809</v>
       </c>
       <c r="O2" t="n">
-        <v>24.36793441704212</v>
+        <v>24.21646182097998</v>
       </c>
       <c r="P2" t="n">
-        <v>327.827939535084</v>
+        <v>328.2588330097662</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24555,28 +24978,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.1350295903564669</v>
+        <v>0.1417527311870412</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002405886162179294</v>
+        <v>0.002745399771908352</v>
       </c>
       <c r="M3" t="n">
-        <v>15.81816207461439</v>
+        <v>15.58095061774705</v>
       </c>
       <c r="N3" t="n">
-        <v>412.8100051716592</v>
+        <v>405.4755848816806</v>
       </c>
       <c r="O3" t="n">
-        <v>20.31772637800941</v>
+        <v>20.13642433208241</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1092019424872</v>
+        <v>326.0450221687379</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24633,28 +25056,28 @@
         <v>0.0931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1874169746101451</v>
+        <v>0.1954415578552167</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007883293998826479</v>
+        <v>0.0088626500327047</v>
       </c>
       <c r="M4" t="n">
-        <v>11.66627055204484</v>
+        <v>11.50223336359894</v>
       </c>
       <c r="N4" t="n">
-        <v>238.0777436032995</v>
+        <v>234.0492935910454</v>
       </c>
       <c r="O4" t="n">
-        <v>15.42976809946603</v>
+        <v>15.29866966736145</v>
       </c>
       <c r="P4" t="n">
-        <v>320.1262288470674</v>
+        <v>320.0488708901014</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24705,28 +25128,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.4674190660721406</v>
+        <v>0.4377392906139549</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06772949154165964</v>
+        <v>0.06051323777828044</v>
       </c>
       <c r="M5" t="n">
-        <v>9.872604159394266</v>
+        <v>9.957611697170025</v>
       </c>
       <c r="N5" t="n">
-        <v>176.7350074072806</v>
+        <v>179.0175292045961</v>
       </c>
       <c r="O5" t="n">
-        <v>13.29417193386939</v>
+        <v>13.37974324135542</v>
       </c>
       <c r="P5" t="n">
-        <v>316.7188744666637</v>
+        <v>316.9875026379177</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24777,28 +25200,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.4355403334437063</v>
+        <v>0.4529915964363508</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01162464799044738</v>
+        <v>0.01294585174868357</v>
       </c>
       <c r="M6" t="n">
-        <v>26.75838581198475</v>
+        <v>26.65030661599192</v>
       </c>
       <c r="N6" t="n">
-        <v>914.0646397826874</v>
+        <v>906.0891832230333</v>
       </c>
       <c r="O6" t="n">
-        <v>30.23350194374921</v>
+        <v>30.1013153071927</v>
       </c>
       <c r="P6" t="n">
-        <v>290.5819868312055</v>
+        <v>290.4252897377577</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24849,28 +25272,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.2062245646526865</v>
+        <v>0.2401771821934604</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004257033886295281</v>
+        <v>0.005951186357091798</v>
       </c>
       <c r="M7" t="n">
-        <v>17.54740928213666</v>
+        <v>17.33968826321068</v>
       </c>
       <c r="N7" t="n">
-        <v>527.4247993210487</v>
+        <v>520.1004768271428</v>
       </c>
       <c r="O7" t="n">
-        <v>22.96573097728545</v>
+        <v>22.80571149574472</v>
       </c>
       <c r="P7" t="n">
-        <v>311.1418286715736</v>
+        <v>310.8117136150387</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24927,28 +25350,28 @@
         <v>0.0902</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1565885218581697</v>
+        <v>-0.1228386652868013</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K8" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002768019194795635</v>
+        <v>0.00176064111017038</v>
       </c>
       <c r="M8" t="n">
-        <v>15.58539549496116</v>
+        <v>15.40323723436596</v>
       </c>
       <c r="N8" t="n">
-        <v>463.4180538669352</v>
+        <v>456.5805921208097</v>
       </c>
       <c r="O8" t="n">
-        <v>21.52714690494156</v>
+        <v>21.36774653820121</v>
       </c>
       <c r="P8" t="n">
-        <v>324.3974105222195</v>
+        <v>324.0630654116984</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25005,28 +25428,28 @@
         <v>0.066</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04430108161222852</v>
+        <v>0.006159585945331808</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K9" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002269346153869201</v>
+        <v>4.486537164005711e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>13.0642426727962</v>
+        <v>13.2179615573698</v>
       </c>
       <c r="N9" t="n">
-        <v>496.1286149378374</v>
+        <v>494.6150800904423</v>
       </c>
       <c r="O9" t="n">
-        <v>22.27394475475409</v>
+        <v>22.23994334728491</v>
       </c>
       <c r="P9" t="n">
-        <v>329.2729305866639</v>
+        <v>329.629571891288</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25083,28 +25506,28 @@
         <v>0.1194</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04880525570739445</v>
+        <v>-0.08306958729999565</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K10" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002181342456268887</v>
+        <v>0.0006538160134436088</v>
       </c>
       <c r="M10" t="n">
-        <v>19.07634364504977</v>
+        <v>18.97990045123612</v>
       </c>
       <c r="N10" t="n">
-        <v>569.2408414715678</v>
+        <v>560.7070756766594</v>
       </c>
       <c r="O10" t="n">
-        <v>23.85876864952523</v>
+        <v>23.67925411993924</v>
       </c>
       <c r="P10" t="n">
-        <v>317.2482385888753</v>
+        <v>317.5899679446048</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25155,28 +25578,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.009063002264089844</v>
+        <v>0.006802215099714259</v>
       </c>
       <c r="J11" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K11" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L11" t="n">
-        <v>6.084607681589027e-06</v>
+        <v>3.51436435563901e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>22.92607141857292</v>
+        <v>22.81383462137948</v>
       </c>
       <c r="N11" t="n">
-        <v>691.4420307507904</v>
+        <v>686.0443650734725</v>
       </c>
       <c r="O11" t="n">
-        <v>26.29528533313131</v>
+        <v>26.19244862691292</v>
       </c>
       <c r="P11" t="n">
-        <v>308.669126506864</v>
+        <v>308.6938453882392</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25227,28 +25650,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.1611027270439701</v>
+        <v>-0.1228968427527421</v>
       </c>
       <c r="J12" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K12" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002026736399205697</v>
+        <v>0.001212174503657182</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1447205213767</v>
+        <v>21.02742628872045</v>
       </c>
       <c r="N12" t="n">
-        <v>698.8599511824684</v>
+        <v>694.0330735417383</v>
       </c>
       <c r="O12" t="n">
-        <v>26.4359594337423</v>
+        <v>26.34450746439831</v>
       </c>
       <c r="P12" t="n">
-        <v>316.874624951802</v>
+        <v>316.5096924916155</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25305,28 +25728,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.8566729821480894</v>
+        <v>-0.8832053314082572</v>
       </c>
       <c r="J13" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K13" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01493374416733884</v>
+        <v>0.01623138664425616</v>
       </c>
       <c r="M13" t="n">
-        <v>46.47809600206959</v>
+        <v>46.14167758433721</v>
       </c>
       <c r="N13" t="n">
-        <v>2580.544314710491</v>
+        <v>2558.060488074772</v>
       </c>
       <c r="O13" t="n">
-        <v>50.79905820692437</v>
+        <v>50.57727244597886</v>
       </c>
       <c r="P13" t="n">
-        <v>295.8612276163109</v>
+        <v>296.136610431692</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25383,28 +25806,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2197459539276947</v>
+        <v>-0.220529307318828</v>
       </c>
       <c r="J14" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K14" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003320517468038187</v>
+        <v>0.003442103850002654</v>
       </c>
       <c r="M14" t="n">
-        <v>23.92930739116276</v>
+        <v>23.68132905962698</v>
       </c>
       <c r="N14" t="n">
-        <v>789.7633559872966</v>
+        <v>778.3725771491257</v>
       </c>
       <c r="O14" t="n">
-        <v>28.10272862174235</v>
+        <v>27.8993293315292</v>
       </c>
       <c r="P14" t="n">
-        <v>300.4947565031526</v>
+        <v>300.5031660512702</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25455,28 +25878,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.06153363353869281</v>
+        <v>-0.1025672748163522</v>
       </c>
       <c r="J15" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K15" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000273247072910765</v>
+        <v>0.000782723838903765</v>
       </c>
       <c r="M15" t="n">
-        <v>23.62384406586769</v>
+        <v>23.33740851624281</v>
       </c>
       <c r="N15" t="n">
-        <v>775.0398661191134</v>
+        <v>762.7813582651813</v>
       </c>
       <c r="O15" t="n">
-        <v>27.83953782157874</v>
+        <v>27.61849666917411</v>
       </c>
       <c r="P15" t="n">
-        <v>301.6596631784976</v>
+        <v>302.0584803948113</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25533,28 +25956,28 @@
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01583744028047266</v>
+        <v>0.05714826835155999</v>
       </c>
       <c r="J16" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K16" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L16" t="n">
-        <v>8.915136940790269e-06</v>
+        <v>0.0001207131577352083</v>
       </c>
       <c r="M16" t="n">
-        <v>34.07000082280914</v>
+        <v>33.55508777607614</v>
       </c>
       <c r="N16" t="n">
-        <v>1614.553259364908</v>
+        <v>1582.224732494446</v>
       </c>
       <c r="O16" t="n">
-        <v>40.18150394603104</v>
+        <v>39.77718859465115</v>
       </c>
       <c r="P16" t="n">
-        <v>300.1958665342873</v>
+        <v>299.8069189018599</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25605,28 +26028,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.8202334866751724</v>
+        <v>-0.8606111412489486</v>
       </c>
       <c r="J17" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K17" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0312883396480077</v>
+        <v>0.03542783330035615</v>
       </c>
       <c r="M17" t="n">
-        <v>29.6813908588778</v>
+        <v>29.23283600659396</v>
       </c>
       <c r="N17" t="n">
-        <v>1124.866192268929</v>
+        <v>1105.616960485183</v>
       </c>
       <c r="O17" t="n">
-        <v>33.53902491529724</v>
+        <v>33.25081894457914</v>
       </c>
       <c r="P17" t="n">
-        <v>308.935482659638</v>
+        <v>309.3345032065985</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25677,28 +26100,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.1388241953032722</v>
+        <v>-0.1438168944049255</v>
       </c>
       <c r="J18" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K18" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0049621778216975</v>
+        <v>0.005468561631073343</v>
       </c>
       <c r="M18" t="n">
-        <v>11.33684830173033</v>
+        <v>11.23840904016742</v>
       </c>
       <c r="N18" t="n">
-        <v>208.9874930764875</v>
+        <v>206.1284092595427</v>
       </c>
       <c r="O18" t="n">
-        <v>14.45639972733486</v>
+        <v>14.35717274603683</v>
       </c>
       <c r="P18" t="n">
-        <v>320.4467666453998</v>
+        <v>320.4955272382762</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25755,28 +26178,28 @@
         <v>0.0788</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.02860094823870959</v>
+        <v>-0.005713677527451281</v>
       </c>
       <c r="J19" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K19" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002320652136026391</v>
+        <v>9.481749812523255e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>10.31699396275802</v>
+        <v>10.25088186623618</v>
       </c>
       <c r="N19" t="n">
-        <v>187.8223790092966</v>
+        <v>186.0773686760375</v>
       </c>
       <c r="O19" t="n">
-        <v>13.70483049910857</v>
+        <v>13.64101787536537</v>
       </c>
       <c r="P19" t="n">
-        <v>341.8834698349178</v>
+        <v>341.6576226867001</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25833,28 +26256,28 @@
         <v>0.0834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09006946901544088</v>
+        <v>0.1093037461036633</v>
       </c>
       <c r="J20" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K20" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003852900200258746</v>
+        <v>0.00575628406624884</v>
       </c>
       <c r="M20" t="n">
-        <v>7.846800498017197</v>
+        <v>7.83097132587032</v>
       </c>
       <c r="N20" t="n">
-        <v>111.2374629142166</v>
+        <v>111.184392712762</v>
       </c>
       <c r="O20" t="n">
-        <v>10.54691722325612</v>
+        <v>10.54440101251664</v>
       </c>
       <c r="P20" t="n">
-        <v>337.4739781588539</v>
+        <v>337.2817036410166</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25911,28 +26334,28 @@
         <v>0.0576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2229567677330159</v>
+        <v>0.2539217589162337</v>
       </c>
       <c r="J21" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K21" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01010222133215055</v>
+        <v>0.01360221776091719</v>
       </c>
       <c r="M21" t="n">
-        <v>11.70499026542726</v>
+        <v>11.57369228522073</v>
       </c>
       <c r="N21" t="n">
-        <v>265.9669780629301</v>
+        <v>260.6115731117259</v>
       </c>
       <c r="O21" t="n">
-        <v>16.30849404644494</v>
+        <v>16.14346843499643</v>
       </c>
       <c r="P21" t="n">
-        <v>315.6553849644384</v>
+        <v>315.3539502812928</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -25983,28 +26406,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.008227056402581791</v>
+        <v>0.01902277621904905</v>
       </c>
       <c r="J22" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K22" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L22" t="n">
-        <v>5.526652952614342e-06</v>
+        <v>3.025373179754709e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>22.53394845108982</v>
+        <v>22.40236793305138</v>
       </c>
       <c r="N22" t="n">
-        <v>680.6043876880124</v>
+        <v>674.7924741816089</v>
       </c>
       <c r="O22" t="n">
-        <v>26.08839565186047</v>
+        <v>25.976767970277</v>
       </c>
       <c r="P22" t="n">
-        <v>300.7599122379523</v>
+        <v>300.6575421922317</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26061,28 +26484,28 @@
         <v>0.0926</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2471467567560044</v>
+        <v>0.2968957911119684</v>
       </c>
       <c r="J23" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K23" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0104450218388058</v>
+        <v>0.01533077549249928</v>
       </c>
       <c r="M23" t="n">
-        <v>13.19335303969937</v>
+        <v>13.09499640395337</v>
       </c>
       <c r="N23" t="n">
-        <v>304.1418353450695</v>
+        <v>302.8405183358809</v>
       </c>
       <c r="O23" t="n">
-        <v>17.43966270731947</v>
+        <v>17.40231359147056</v>
       </c>
       <c r="P23" t="n">
-        <v>322.8418048901804</v>
+        <v>322.3441503632168</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26139,28 +26562,28 @@
         <v>0.0771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.116715344013823</v>
+        <v>0.1316687852511268</v>
       </c>
       <c r="J24" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K24" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005886744277641243</v>
+        <v>0.007694178508994232</v>
       </c>
       <c r="M24" t="n">
-        <v>8.324261213446926</v>
+        <v>8.285148038680774</v>
       </c>
       <c r="N24" t="n">
-        <v>122.708132649803</v>
+        <v>121.141437385978</v>
       </c>
       <c r="O24" t="n">
-        <v>11.07737029487608</v>
+        <v>11.0064270944743</v>
       </c>
       <c r="P24" t="n">
-        <v>339.3362558975398</v>
+        <v>339.1875011954485</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26198,7 +26621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y311"/>
+  <dimension ref="A1:Y316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56251,6 +56674,577 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-38.58478108810665,174.6295228769517</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-38.58408781875503,174.62973356696685</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-38.5833909880583,174.62987116104748</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-38.58268455830444,174.62988610130182</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-38.581976728012556,174.62992853941668</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-38.58127145378106,174.62993529299567</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-38.58056912028745,174.6299562833258</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-38.579867610344586,174.629835883868</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-38.57916392351159,174.63008494584906</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-38.57846300980384,174.62986070754275</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-38.57776272694503,174.6298880145802</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-38.57706278345759,174.6298818476918</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>-38.57637155851591,174.63038740671672</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>-38.575670517761786,174.63045533796995</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>-38.57495968735747,174.63006985954394</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>-38.57428453297867,174.6307691232648</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>-38.573580109785496,174.6304610430291</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>-38.57285861510607,174.6301171483</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>-38.57216126690827,174.63026133085347</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>-38.571461527320125,174.63046808465054</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>-38.570755386262746,174.6304718945203</t>
+        </is>
+      </c>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>-38.57005335380847,174.6304563593937</t>
+        </is>
+      </c>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>-38.56934866668417,174.63033491812047</t>
+        </is>
+      </c>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-38.5847854225163,174.62961201105844</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-38.58408990233841,174.62977641508522</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-38.583394508912036,174.6299435667962</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-38.582698702257126,174.63030846867989</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-38.58198015383465,174.63047764601998</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-38.581270752571044,174.6300546632605</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-38.58056864900698,174.63003651313574</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-38.57986565956137,174.63016798550836</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-38.57916301091347,174.63024027366757</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-38.57846048835416,174.63028993184682</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-38.5777642448405,174.63016756390078</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>-38.577077936560656,174.63067293269728</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>-38.57637033709595,174.63033079281513</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>-38.57567006108331,174.63043417027367</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>-38.57496749031171,174.63043150153842</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>-38.57428279932835,174.63071993598734</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>-38.573574686592025,174.63035780429104</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>-38.572861698814414,174.63017209715636</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>-38.57216487785053,174.63033601795843</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>-38.57146309166395,174.63052198817184</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>-38.570759633082325,174.630714907767</t>
+        </is>
+      </c>
+      <c r="W313" t="inlineStr">
+        <is>
+          <t>-38.57005010841774,174.630296431182</t>
+        </is>
+      </c>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t>-38.569348531108,174.63032905133733</t>
+        </is>
+      </c>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-38.58479355631443,174.6297792807413</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-38.58409289955105,174.62983805222146</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-38.58339185713397,174.62988903335204</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-38.58268482714212,174.6298941289186</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-38.58197767925182,174.6300809670062</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-38.58127050509575,174.63009678718888</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-38.58056913377106,174.6299539877661</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-38.579866765680684,174.62997969928557</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-38.579162552886366,174.63031821847107</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-38.57846009600003,174.63035669787797</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-38.57776265960151,174.6298756148413</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-38.577081904999304,174.63088015579999</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-38.57637321016324,174.6304639640634</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-38.57567547909723,174.63068531438583</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>-38.57496991637261,174.63054395229287</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>-38.57428849203248,174.63088145209392</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>-38.57358113796084,174.63048061610868</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>-38.57285572196448,174.63006559559173</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>-38.572159996790404,174.6302350605439</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>-38.57145988972504,174.63041165798722</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>-38.57076574777503,174.63106485603993</t>
+        </is>
+      </c>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t>-38.57005088059534,174.6303344820113</t>
+        </is>
+      </c>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>-38.56934801379508,174.63030666579053</t>
+        </is>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-38.577088862063924,174.63124348470203</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-38.576378483303166,174.63070840083094</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-38.57567584910635,174.63070246653123</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>-38.57496294234927,174.63022071169956</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr"/>
+      <c r="R315" t="inlineStr"/>
+      <c r="S315" t="inlineStr"/>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>-38.572149907635264,174.63002638725274</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>-38.57146209314948,174.63048758166872</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr"/>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>-38.57005462257102,174.63051888513107</t>
+        </is>
+      </c>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>-38.56935186399996,174.6304732791578</t>
+        </is>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-38.584797990804674,174.62987047710126</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-38.584093395369344,174.62984824869974</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-38.58339487659352,174.62995112815636</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-38.582690649262666,174.63006798417211</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-38.5819804308526,174.6305220658041</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-38.5812709460902,174.63002172165923</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-38.58056885330269,174.63000173540735</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-38.57986426699588,174.63040495796506</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-38.57916218143558,174.6303814236522</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-38.57845934047618,174.63048524543697</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-38.577765627430445,174.63042230128835</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-38.57708478001994,174.63103029502525</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>-38.575673433482955,174.63059048998497</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>-38.57497045842915,174.630569077932</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>-38.57428449375605,174.63076801043044</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>-38.573573509858015,174.63033540360055</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>-38.572853935957475,174.63003377104954</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>-38.572159016506454,174.63021478505834</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>-38.57146088493342,174.6304459498007</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>-38.57076167610772,174.63083182490885</t>
+        </is>
+      </c>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>-38.57004889929461,174.6302368500852</t>
+        </is>
+      </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>-38.56934860230445,174.63033213221786</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y316"/>
+  <dimension ref="A1:Y317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21320,6 +21320,83 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>323.175</v>
+      </c>
+      <c r="C317" t="n">
+        <v>331.735</v>
+      </c>
+      <c r="D317" t="n">
+        <v>327.565</v>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="n">
+        <v>280.335</v>
+      </c>
+      <c r="G317" t="n">
+        <v>307.135</v>
+      </c>
+      <c r="H317" t="n">
+        <v>324.565</v>
+      </c>
+      <c r="I317" t="n">
+        <v>299.4018181818182</v>
+      </c>
+      <c r="J317" t="n">
+        <v>299.7415789473685</v>
+      </c>
+      <c r="K317" t="n">
+        <v>288.5714285714286</v>
+      </c>
+      <c r="L317" t="n">
+        <v>291.2451807228916</v>
+      </c>
+      <c r="M317" t="n">
+        <v>229.6825</v>
+      </c>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="n">
+        <v>280.4625</v>
+      </c>
+      <c r="P317" t="n">
+        <v>286.9142857142857</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>279.4641176470589</v>
+      </c>
+      <c r="R317" t="n">
+        <v>325.7684615384616</v>
+      </c>
+      <c r="S317" t="n">
+        <v>348.15</v>
+      </c>
+      <c r="T317" t="n">
+        <v>354.79</v>
+      </c>
+      <c r="U317" t="n">
+        <v>348.95</v>
+      </c>
+      <c r="V317" t="n">
+        <v>294.95</v>
+      </c>
+      <c r="W317" t="n">
+        <v>354.44</v>
+      </c>
+      <c r="X317" t="n">
+        <v>341.3957142857143</v>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21331,7 +21408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24739,6 +24816,16 @@
       </c>
       <c r="B340" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -24906,28 +24993,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.6597038488303637</v>
+        <v>0.6374923540997279</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03900001533445441</v>
+        <v>0.03673908257034086</v>
       </c>
       <c r="M2" t="n">
-        <v>17.27868528656395</v>
+        <v>17.33884154459332</v>
       </c>
       <c r="N2" t="n">
-        <v>586.4370231269809</v>
+        <v>585.7987375771032</v>
       </c>
       <c r="O2" t="n">
-        <v>24.21646182097998</v>
+        <v>24.20327947979577</v>
       </c>
       <c r="P2" t="n">
-        <v>328.2588330097662</v>
+        <v>328.4730947185903</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24978,28 +25065,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.1417527311870412</v>
+        <v>0.1435433216344325</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002745399771908352</v>
+        <v>0.002839719930367024</v>
       </c>
       <c r="M3" t="n">
-        <v>15.58095061774705</v>
+        <v>15.51457696169079</v>
       </c>
       <c r="N3" t="n">
-        <v>405.4755848816806</v>
+        <v>403.6098454642547</v>
       </c>
       <c r="O3" t="n">
-        <v>20.13642433208241</v>
+        <v>20.09004344107435</v>
       </c>
       <c r="P3" t="n">
-        <v>326.0450221687379</v>
+        <v>326.0277337273232</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25056,28 +25143,28 @@
         <v>0.0931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1954415578552167</v>
+        <v>0.1975837274895175</v>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0088626500327047</v>
+        <v>0.009133003979534093</v>
       </c>
       <c r="M4" t="n">
-        <v>11.50223336359894</v>
+        <v>11.46021741056695</v>
       </c>
       <c r="N4" t="n">
-        <v>234.0492935910454</v>
+        <v>233.0288256104406</v>
       </c>
       <c r="O4" t="n">
-        <v>15.29866966736145</v>
+        <v>15.26528170753624</v>
       </c>
       <c r="P4" t="n">
-        <v>320.0488708901014</v>
+        <v>320.0280438313731</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25131,7 +25218,7 @@
         <v>0.4377392906139549</v>
       </c>
       <c r="J5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
         <v>149</v>
@@ -25200,28 +25287,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.4529915964363508</v>
+        <v>0.4331414495541562</v>
       </c>
       <c r="J6" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01294585174868357</v>
+        <v>0.01193869282642668</v>
       </c>
       <c r="M6" t="n">
-        <v>26.65030661599192</v>
+        <v>26.62992045392514</v>
       </c>
       <c r="N6" t="n">
-        <v>906.0891832230333</v>
+        <v>903.8833639630352</v>
       </c>
       <c r="O6" t="n">
-        <v>30.1013153071927</v>
+        <v>30.06465306573544</v>
       </c>
       <c r="P6" t="n">
-        <v>290.4252897377577</v>
+        <v>290.6061925798568</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25272,28 +25359,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.2401771821934604</v>
+        <v>0.2318743493608322</v>
       </c>
       <c r="J7" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005951186357091798</v>
+        <v>0.005593442898019774</v>
       </c>
       <c r="M7" t="n">
-        <v>17.33968826321068</v>
+        <v>17.32230289850219</v>
       </c>
       <c r="N7" t="n">
-        <v>520.1004768271428</v>
+        <v>518.1899757537874</v>
       </c>
       <c r="O7" t="n">
-        <v>22.80571149574472</v>
+        <v>22.76378649859877</v>
       </c>
       <c r="P7" t="n">
-        <v>310.8117136150387</v>
+        <v>310.8929770674912</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25350,28 +25437,28 @@
         <v>0.0902</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1228386652868013</v>
+        <v>-0.1196928186708647</v>
       </c>
       <c r="J8" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K8" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00176064111017038</v>
+        <v>0.00168630462135988</v>
       </c>
       <c r="M8" t="n">
-        <v>15.40323723436596</v>
+        <v>15.34190536437034</v>
       </c>
       <c r="N8" t="n">
-        <v>456.5805921208097</v>
+        <v>454.5169260412982</v>
       </c>
       <c r="O8" t="n">
-        <v>21.36774653820121</v>
+        <v>21.31940257233533</v>
       </c>
       <c r="P8" t="n">
-        <v>324.0630654116984</v>
+        <v>324.0317012503152</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25428,28 +25515,28 @@
         <v>0.066</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006159585945331808</v>
+        <v>-0.02389439984547998</v>
       </c>
       <c r="J9" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K9" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L9" t="n">
-        <v>4.486537164005711e-06</v>
+        <v>6.749628233437832e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>13.2179615573698</v>
+        <v>13.37834537058424</v>
       </c>
       <c r="N9" t="n">
-        <v>494.6150800904423</v>
+        <v>496.9672246509521</v>
       </c>
       <c r="O9" t="n">
-        <v>22.23994334728491</v>
+        <v>22.29276170982304</v>
       </c>
       <c r="P9" t="n">
-        <v>329.629571891288</v>
+        <v>329.9111403703123</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25506,28 +25593,28 @@
         <v>0.1194</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08306958729999565</v>
+        <v>-0.0984793246133754</v>
       </c>
       <c r="J10" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K10" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006538160134436088</v>
+        <v>0.0009256295290908101</v>
       </c>
       <c r="M10" t="n">
-        <v>18.97990045123612</v>
+        <v>18.98701166967254</v>
       </c>
       <c r="N10" t="n">
-        <v>560.7070756766594</v>
+        <v>559.0496085399967</v>
       </c>
       <c r="O10" t="n">
-        <v>23.67925411993924</v>
+        <v>23.64422992063807</v>
       </c>
       <c r="P10" t="n">
-        <v>317.5899679446048</v>
+        <v>317.7441880775896</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25578,28 +25665,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.006802215099714259</v>
+        <v>-0.01179016540066743</v>
       </c>
       <c r="J11" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K11" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L11" t="n">
-        <v>3.51436435563901e-06</v>
+        <v>1.062295633835753e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>22.81383462137948</v>
+        <v>22.81593285892812</v>
       </c>
       <c r="N11" t="n">
-        <v>686.0443650734725</v>
+        <v>684.6724318692666</v>
       </c>
       <c r="O11" t="n">
-        <v>26.19244862691292</v>
+        <v>26.16624604083028</v>
       </c>
       <c r="P11" t="n">
-        <v>308.6938453882392</v>
+        <v>308.8837146405781</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25650,28 +25737,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.1228968427527421</v>
+        <v>-0.1445496082201392</v>
       </c>
       <c r="J12" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K12" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001212174503657182</v>
+        <v>0.001686749018094624</v>
       </c>
       <c r="M12" t="n">
-        <v>21.02742628872045</v>
+        <v>21.0765655645957</v>
       </c>
       <c r="N12" t="n">
-        <v>694.0330735417383</v>
+        <v>692.899045048548</v>
       </c>
       <c r="O12" t="n">
-        <v>26.34450746439831</v>
+        <v>26.32297561159353</v>
       </c>
       <c r="P12" t="n">
-        <v>316.5096924916155</v>
+        <v>316.7187316263452</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25728,28 +25815,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.8832053314082572</v>
+        <v>-0.920894628615308</v>
       </c>
       <c r="J13" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K13" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01623138664425616</v>
+        <v>0.01769191807311787</v>
       </c>
       <c r="M13" t="n">
-        <v>46.14167758433721</v>
+        <v>46.11932926483905</v>
       </c>
       <c r="N13" t="n">
-        <v>2558.060488074772</v>
+        <v>2554.808030696694</v>
       </c>
       <c r="O13" t="n">
-        <v>50.57727244597886</v>
+        <v>50.54510887016363</v>
       </c>
       <c r="P13" t="n">
-        <v>296.136610431692</v>
+        <v>296.5234880438895</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25809,7 +25896,7 @@
         <v>-0.220529307318828</v>
       </c>
       <c r="J14" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K14" t="n">
         <v>222</v>
@@ -25878,28 +25965,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1025672748163522</v>
+        <v>-0.1165833787031347</v>
       </c>
       <c r="J15" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K15" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000782723838903765</v>
+        <v>0.001016286445357784</v>
       </c>
       <c r="M15" t="n">
-        <v>23.33740851624281</v>
+        <v>23.31150094970742</v>
       </c>
       <c r="N15" t="n">
-        <v>762.7813582651813</v>
+        <v>761.0235601133604</v>
       </c>
       <c r="O15" t="n">
-        <v>27.61849666917411</v>
+        <v>27.58665547168341</v>
       </c>
       <c r="P15" t="n">
-        <v>302.0584803948113</v>
+        <v>302.1953608477709</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25956,28 +26043,28 @@
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05714826835155999</v>
+        <v>0.04465760188971708</v>
       </c>
       <c r="J16" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K16" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001207131577352083</v>
+        <v>7.43119365893552e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>33.55508777607614</v>
+        <v>33.46205507726127</v>
       </c>
       <c r="N16" t="n">
-        <v>1582.224732494446</v>
+        <v>1575.114417083779</v>
       </c>
       <c r="O16" t="n">
-        <v>39.77718859465115</v>
+        <v>39.68771115954885</v>
       </c>
       <c r="P16" t="n">
-        <v>299.8069189018599</v>
+        <v>299.9256472595756</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26028,28 +26115,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.8606111412489486</v>
+        <v>-0.8676476472550592</v>
       </c>
       <c r="J17" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K17" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03542783330035615</v>
+        <v>0.0362777781967234</v>
       </c>
       <c r="M17" t="n">
-        <v>29.23283600659396</v>
+        <v>29.11262239262419</v>
       </c>
       <c r="N17" t="n">
-        <v>1105.616960485183</v>
+        <v>1100.486380518592</v>
       </c>
       <c r="O17" t="n">
-        <v>33.25081894457914</v>
+        <v>33.17357955540209</v>
       </c>
       <c r="P17" t="n">
-        <v>309.3345032065985</v>
+        <v>309.4044971549131</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26100,28 +26187,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.1438168944049255</v>
+        <v>-0.1373067217008358</v>
       </c>
       <c r="J18" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K18" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005468561631073343</v>
+        <v>0.005015672447773456</v>
       </c>
       <c r="M18" t="n">
-        <v>11.23840904016742</v>
+        <v>11.23158757005731</v>
       </c>
       <c r="N18" t="n">
-        <v>206.1284092595427</v>
+        <v>205.6121967732119</v>
       </c>
       <c r="O18" t="n">
-        <v>14.35717274603683</v>
+        <v>14.33918396468962</v>
       </c>
       <c r="P18" t="n">
-        <v>320.4955272382762</v>
+        <v>320.431190935272</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26178,28 +26265,28 @@
         <v>0.0788</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.005713677527451281</v>
+        <v>-0.0008382357785865354</v>
       </c>
       <c r="J19" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K19" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L19" t="n">
-        <v>9.481749812523255e-06</v>
+        <v>2.054004603069259e-07</v>
       </c>
       <c r="M19" t="n">
-        <v>10.25088186623618</v>
+        <v>10.23137920328257</v>
       </c>
       <c r="N19" t="n">
-        <v>186.0773686760375</v>
+        <v>185.509542436591</v>
       </c>
       <c r="O19" t="n">
-        <v>13.64101787536537</v>
+        <v>13.62018878123908</v>
       </c>
       <c r="P19" t="n">
-        <v>341.6576226867001</v>
+        <v>341.6092620525409</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26256,28 +26343,28 @@
         <v>0.0834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1093037461036633</v>
+        <v>0.1196541529476553</v>
       </c>
       <c r="J20" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K20" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00575628406624884</v>
+        <v>0.00688634170732727</v>
       </c>
       <c r="M20" t="n">
-        <v>7.83097132587032</v>
+        <v>7.853121397097169</v>
       </c>
       <c r="N20" t="n">
-        <v>111.184392712762</v>
+        <v>111.5863286657509</v>
       </c>
       <c r="O20" t="n">
-        <v>10.54440101251664</v>
+        <v>10.56344303083757</v>
       </c>
       <c r="P20" t="n">
-        <v>337.2817036410166</v>
+        <v>337.1778852758984</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26334,28 +26421,28 @@
         <v>0.0576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2539217589162337</v>
+        <v>0.2781794412573581</v>
       </c>
       <c r="J21" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K21" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01360221776091719</v>
+        <v>0.01619865647269814</v>
       </c>
       <c r="M21" t="n">
-        <v>11.57369228522073</v>
+        <v>11.64462753431011</v>
       </c>
       <c r="N21" t="n">
-        <v>260.6115731117259</v>
+        <v>262.9695450929204</v>
       </c>
       <c r="O21" t="n">
-        <v>16.14346843499643</v>
+        <v>16.21633574803261</v>
       </c>
       <c r="P21" t="n">
-        <v>315.3539502812928</v>
+        <v>315.1164174645357</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26406,28 +26493,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.01902277621904905</v>
+        <v>0.01407328920634369</v>
       </c>
       <c r="J22" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K22" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L22" t="n">
-        <v>3.025373179754709e-05</v>
+        <v>1.668996164916337e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>22.40236793305138</v>
+        <v>22.33120730695394</v>
       </c>
       <c r="N22" t="n">
-        <v>674.7924741816089</v>
+        <v>671.9361407795144</v>
       </c>
       <c r="O22" t="n">
-        <v>25.976767970277</v>
+        <v>25.92173105291224</v>
       </c>
       <c r="P22" t="n">
-        <v>300.6575421922317</v>
+        <v>300.7052377664316</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26484,28 +26571,28 @@
         <v>0.0926</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2968957911119684</v>
+        <v>0.3156238888100262</v>
       </c>
       <c r="J23" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K23" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01533077549249928</v>
+        <v>0.01728004185600907</v>
       </c>
       <c r="M23" t="n">
-        <v>13.09499640395337</v>
+        <v>13.10781849352632</v>
       </c>
       <c r="N23" t="n">
-        <v>302.8405183358809</v>
+        <v>304.0651494156393</v>
       </c>
       <c r="O23" t="n">
-        <v>17.40231359147056</v>
+        <v>17.43746396170152</v>
       </c>
       <c r="P23" t="n">
-        <v>322.3441503632168</v>
+        <v>322.155799954535</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26562,28 +26649,28 @@
         <v>0.0771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1316687852511268</v>
+        <v>0.1308660493648514</v>
       </c>
       <c r="J24" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K24" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007694178508994232</v>
+        <v>0.00765389091764257</v>
       </c>
       <c r="M24" t="n">
-        <v>8.285148038680774</v>
+        <v>8.256942125579263</v>
       </c>
       <c r="N24" t="n">
-        <v>121.141437385978</v>
+        <v>120.6657157443157</v>
       </c>
       <c r="O24" t="n">
-        <v>11.0064270944743</v>
+        <v>10.98479475203409</v>
       </c>
       <c r="P24" t="n">
-        <v>339.1875011954485</v>
+        <v>339.1955457651224</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26621,7 +26708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y316"/>
+  <dimension ref="A1:Y317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57245,6 +57332,125 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-38.58479594069744,174.62982831596895</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-38.5840908717007,174.62979634977196</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-38.58339288776502,174.62991022807262</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-38.5819806112273,174.63055099031453</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-38.58126962093894,174.63024726257754</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-38.5805685640493,174.63005097516125</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-38.57986462782989,174.6303435627875</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-38.57916240470777,174.6303434328865</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-38.57845939830187,174.6304754076139</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>-38.57776576899344,174.6304483895513</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>-38.5770877251505,174.63118410598315</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>-38.57567518704813,174.63067177623768</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>-38.574971836706396,174.6306329655658</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>-38.574283963417535,174.63075296356126</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>-38.573571014779006,174.6302879067394</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>-38.57285799836131,174.6301061585292</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>-38.572153701496795,174.6301048545143</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>-38.57145458732459,174.63022895947242</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>-38.57076250411119,174.63087921134684</t>
+        </is>
+      </c>
+      <c r="W317" t="inlineStr">
+        <is>
+          <t>-38.57004870216897,174.63022713660737</t>
+        </is>
+      </c>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>-38.569350487466345,174.6304137100026</t>
+        </is>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y317"/>
+  <dimension ref="A1:Y318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21397,6 +21397,67 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>337.345</v>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="n">
+        <v>298.665</v>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="n">
+        <v>252.435</v>
+      </c>
+      <c r="G318" t="n">
+        <v>273.705</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>270.5971428571428</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="n">
+        <v>265.8324137931035</v>
+      </c>
+      <c r="O318" t="n">
+        <v>268.7125</v>
+      </c>
+      <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="n">
+        <v>259.98</v>
+      </c>
+      <c r="R318" t="n">
+        <v>308.0292307692308</v>
+      </c>
+      <c r="S318" t="n">
+        <v>338.1766666666667</v>
+      </c>
+      <c r="T318" t="n">
+        <v>347.2466666666667</v>
+      </c>
+      <c r="U318" t="inlineStr"/>
+      <c r="V318" t="inlineStr"/>
+      <c r="W318" t="n">
+        <v>327.4066666666666</v>
+      </c>
+      <c r="X318" t="n">
+        <v>348.7785714285715</v>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21408,7 +21469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24826,6 +24887,16 @@
       </c>
       <c r="B341" t="n">
         <v>1.77</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -24993,28 +25064,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.6374923540997279</v>
+        <v>0.6300432456237977</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03673908257034086</v>
+        <v>0.03627222352937665</v>
       </c>
       <c r="M2" t="n">
-        <v>17.33884154459332</v>
+        <v>17.2968702057431</v>
       </c>
       <c r="N2" t="n">
-        <v>585.7987375771032</v>
+        <v>582.9506332916175</v>
       </c>
       <c r="O2" t="n">
-        <v>24.20327947979577</v>
+        <v>24.1443706335787</v>
       </c>
       <c r="P2" t="n">
-        <v>328.4730947185903</v>
+        <v>328.5453609806524</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25068,7 +25139,7 @@
         <v>0.1435433216344325</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K3" t="n">
         <v>215</v>
@@ -25143,28 +25214,28 @@
         <v>0.0931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1975837274895175</v>
+        <v>0.1755838891168564</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K4" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009133003979534093</v>
+        <v>0.007194323037224892</v>
       </c>
       <c r="M4" t="n">
-        <v>11.46021741056695</v>
+        <v>11.54487567040009</v>
       </c>
       <c r="N4" t="n">
-        <v>233.0288256104406</v>
+        <v>235.0573826630948</v>
       </c>
       <c r="O4" t="n">
-        <v>15.26528170753624</v>
+        <v>15.33158121861848</v>
       </c>
       <c r="P4" t="n">
-        <v>320.0280438313731</v>
+        <v>320.2431829212087</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25218,7 +25289,7 @@
         <v>0.4377392906139549</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K5" t="n">
         <v>149</v>
@@ -25287,28 +25358,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.4331414495541562</v>
+        <v>0.3880943969388292</v>
       </c>
       <c r="J6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K6" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01193869282642668</v>
+        <v>0.009580569455552745</v>
       </c>
       <c r="M6" t="n">
-        <v>26.62992045392514</v>
+        <v>26.7494606475586</v>
       </c>
       <c r="N6" t="n">
-        <v>903.8833639630352</v>
+        <v>911.139183669777</v>
       </c>
       <c r="O6" t="n">
-        <v>30.06465306573544</v>
+        <v>30.18508213786699</v>
       </c>
       <c r="P6" t="n">
-        <v>290.6061925798568</v>
+        <v>291.0191295380267</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25359,28 +25430,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.2318743493608322</v>
+        <v>0.1953299942896568</v>
       </c>
       <c r="J7" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K7" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005593442898019774</v>
+        <v>0.003948588869569281</v>
       </c>
       <c r="M7" t="n">
-        <v>17.32230289850219</v>
+        <v>17.5073470500001</v>
       </c>
       <c r="N7" t="n">
-        <v>518.1899757537874</v>
+        <v>524.0557390872253</v>
       </c>
       <c r="O7" t="n">
-        <v>22.76378649859877</v>
+        <v>22.89226373880978</v>
       </c>
       <c r="P7" t="n">
-        <v>310.8929770674912</v>
+        <v>311.2526836345933</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25440,7 +25511,7 @@
         <v>-0.1196928186708647</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K8" t="n">
         <v>215</v>
@@ -25518,7 +25589,7 @@
         <v>-0.02389439984547998</v>
       </c>
       <c r="J9" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K9" t="n">
         <v>176</v>
@@ -25596,7 +25667,7 @@
         <v>-0.0984793246133754</v>
       </c>
       <c r="J10" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K10" t="n">
         <v>191</v>
@@ -25665,28 +25736,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.01179016540066743</v>
+        <v>-0.04649195758469658</v>
       </c>
       <c r="J11" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K11" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L11" t="n">
-        <v>1.062295633835753e-05</v>
+        <v>0.0001649806139226717</v>
       </c>
       <c r="M11" t="n">
-        <v>22.81593285892812</v>
+        <v>22.91462851921358</v>
       </c>
       <c r="N11" t="n">
-        <v>684.6724318692666</v>
+        <v>688.2738561943499</v>
       </c>
       <c r="O11" t="n">
-        <v>26.16624604083028</v>
+        <v>26.23497391259138</v>
       </c>
       <c r="P11" t="n">
-        <v>308.8837146405781</v>
+        <v>309.2401530618276</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25740,7 +25811,7 @@
         <v>-0.1445496082201392</v>
       </c>
       <c r="J12" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K12" t="n">
         <v>186</v>
@@ -25818,7 +25889,7 @@
         <v>-0.920894628615308</v>
       </c>
       <c r="J13" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K13" t="n">
         <v>197</v>
@@ -25893,28 +25964,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.220529307318828</v>
+        <v>-0.2440567827647964</v>
       </c>
       <c r="J14" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K14" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003442103850002654</v>
+        <v>0.004226626124902766</v>
       </c>
       <c r="M14" t="n">
-        <v>23.68132905962698</v>
+        <v>23.70641921110966</v>
       </c>
       <c r="N14" t="n">
-        <v>778.3725771491257</v>
+        <v>778.6208374011769</v>
       </c>
       <c r="O14" t="n">
-        <v>27.8993293315292</v>
+        <v>27.90377819223011</v>
       </c>
       <c r="P14" t="n">
-        <v>300.5031660512702</v>
+        <v>300.7359562677661</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25965,28 +26036,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1165833787031347</v>
+        <v>-0.1390899969785665</v>
       </c>
       <c r="J15" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K15" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001016286445357784</v>
+        <v>0.001448887522904396</v>
       </c>
       <c r="M15" t="n">
-        <v>23.31150094970742</v>
+        <v>23.33404265057103</v>
       </c>
       <c r="N15" t="n">
-        <v>761.0235601133604</v>
+        <v>761.710870969197</v>
       </c>
       <c r="O15" t="n">
-        <v>27.58665547168341</v>
+        <v>27.59910996697533</v>
       </c>
       <c r="P15" t="n">
-        <v>302.1953608477709</v>
+        <v>302.4166321822155</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26046,7 +26117,7 @@
         <v>0.04465760188971708</v>
       </c>
       <c r="J16" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K16" t="n">
         <v>194</v>
@@ -26115,28 +26186,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.8676476472550592</v>
+        <v>-0.8914576588117068</v>
       </c>
       <c r="J17" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K17" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0362777781967234</v>
+        <v>0.03841534966964921</v>
       </c>
       <c r="M17" t="n">
-        <v>29.11262239262419</v>
+        <v>29.04889414624876</v>
       </c>
       <c r="N17" t="n">
-        <v>1100.486380518592</v>
+        <v>1098.707180354565</v>
       </c>
       <c r="O17" t="n">
-        <v>33.17357955540209</v>
+        <v>33.14675218410644</v>
       </c>
       <c r="P17" t="n">
-        <v>309.4044971549131</v>
+        <v>309.6428338974048</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26187,28 +26258,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.1373067217008358</v>
+        <v>-0.1438069379322288</v>
       </c>
       <c r="J18" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K18" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005015672447773456</v>
+        <v>0.005530931278427409</v>
       </c>
       <c r="M18" t="n">
-        <v>11.23158757005731</v>
+        <v>11.21928819774247</v>
       </c>
       <c r="N18" t="n">
-        <v>205.6121967732119</v>
+        <v>205.0994182473868</v>
       </c>
       <c r="O18" t="n">
-        <v>14.33918396468962</v>
+        <v>14.32129247824325</v>
       </c>
       <c r="P18" t="n">
-        <v>320.431190935272</v>
+        <v>320.4958227143293</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26265,28 +26336,28 @@
         <v>0.0788</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0008382357785865354</v>
+        <v>-0.003342701596019002</v>
       </c>
       <c r="J19" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K19" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L19" t="n">
-        <v>2.054004603069259e-07</v>
+        <v>3.289959818686405e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>10.23137920328257</v>
+        <v>10.20675672081535</v>
       </c>
       <c r="N19" t="n">
-        <v>185.509542436591</v>
+        <v>184.819046283649</v>
       </c>
       <c r="O19" t="n">
-        <v>13.62018878123908</v>
+        <v>13.59481689040529</v>
       </c>
       <c r="P19" t="n">
-        <v>341.6092620525409</v>
+        <v>341.6342515947166</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26343,28 +26414,28 @@
         <v>0.0834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1196541529476553</v>
+        <v>0.1245879089556631</v>
       </c>
       <c r="J20" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K20" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00688634170732727</v>
+        <v>0.00750087275174216</v>
       </c>
       <c r="M20" t="n">
-        <v>7.853121397097169</v>
+        <v>7.848481803086729</v>
       </c>
       <c r="N20" t="n">
-        <v>111.5863286657509</v>
+        <v>111.3438976470156</v>
       </c>
       <c r="O20" t="n">
-        <v>10.56344303083757</v>
+        <v>10.55196179139289</v>
       </c>
       <c r="P20" t="n">
-        <v>337.1778852758984</v>
+        <v>337.1280967256013</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26424,7 +26495,7 @@
         <v>0.2781794412573581</v>
       </c>
       <c r="J21" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K21" t="n">
         <v>198</v>
@@ -26496,7 +26567,7 @@
         <v>0.01407328920634369</v>
       </c>
       <c r="J22" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K22" t="n">
         <v>223</v>
@@ -26571,28 +26642,28 @@
         <v>0.0926</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3156238888100262</v>
+        <v>0.3135048447111677</v>
       </c>
       <c r="J23" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K23" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01728004185600907</v>
+        <v>0.01717865346552194</v>
       </c>
       <c r="M23" t="n">
-        <v>13.10781849352632</v>
+        <v>13.06867064523552</v>
       </c>
       <c r="N23" t="n">
-        <v>304.0651494156393</v>
+        <v>302.8352096297095</v>
       </c>
       <c r="O23" t="n">
-        <v>17.43746396170152</v>
+        <v>17.40216106205518</v>
       </c>
       <c r="P23" t="n">
-        <v>322.155799954535</v>
+        <v>322.1772391971634</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26649,28 +26720,28 @@
         <v>0.0771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1308660493648514</v>
+        <v>0.1353144429511464</v>
       </c>
       <c r="J24" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K24" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00765389091764257</v>
+        <v>0.008225627559975024</v>
       </c>
       <c r="M24" t="n">
-        <v>8.256942125579263</v>
+        <v>8.247695432323745</v>
       </c>
       <c r="N24" t="n">
-        <v>120.6657157443157</v>
+        <v>120.3415999164385</v>
       </c>
       <c r="O24" t="n">
-        <v>10.98479475203409</v>
+        <v>10.97003190134097</v>
       </c>
       <c r="P24" t="n">
-        <v>339.1955457651224</v>
+        <v>339.1506905823863</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26708,7 +26779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y317"/>
+  <dimension ref="A1:Y318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51250,7 +51321,7 @@
       </c>
       <c r="X253" t="inlineStr">
         <is>
-          <t>-38.569353265495806,174.6305339299</t>
+          <t>-38.5693532654958,174.6305339299</t>
         </is>
       </c>
       <c r="Y253" t="inlineStr">
@@ -57451,6 +57522,93 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-38.58478804652808,174.6296659727132</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-38.58340898739317,174.6302413240389</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-38.581982607754895,174.6308712259585</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-38.58126736549716,174.63063096903176</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-38.57845818552394,174.63068170675524</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-38.57638055452533,174.63080441896875</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>-38.57567809509429,174.63080658407108</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>-38.57429183699804,174.63097636001308</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>-38.573581685826106,174.6304910456886</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>-38.57286440560371,174.6302203300445</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>-38.57215787929878,174.63019126396836</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr"/>
+      <c r="V318" t="inlineStr"/>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t>-38.57005499582138,174.6305372795531</t>
+        </is>
+      </c>
+      <c r="X318" t="inlineStr">
+        <is>
+          <t>-38.56934853035058,174.630329018562</t>
+        </is>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y318"/>
+  <dimension ref="A1:Y319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21406,7 +21406,9 @@
       <c r="B318" t="n">
         <v>337.345</v>
       </c>
-      <c r="C318" t="inlineStr"/>
+      <c r="C318" t="n">
+        <v>281.775</v>
+      </c>
       <c r="D318" t="n">
         <v>298.665</v>
       </c>
@@ -21417,9 +21419,15 @@
       <c r="G318" t="n">
         <v>273.705</v>
       </c>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="H318" t="n">
+        <v>253.635</v>
+      </c>
+      <c r="I318" t="n">
+        <v>195.5409090909091</v>
+      </c>
+      <c r="J318" t="n">
+        <v>220.1594736842105</v>
+      </c>
       <c r="K318" t="n">
         <v>270.5971428571428</v>
       </c>
@@ -21431,7 +21439,9 @@
       <c r="O318" t="n">
         <v>268.7125</v>
       </c>
-      <c r="P318" t="inlineStr"/>
+      <c r="P318" t="n">
+        <v>239.1314285714286</v>
+      </c>
       <c r="Q318" t="n">
         <v>259.98</v>
       </c>
@@ -21455,6 +21465,79 @@
       <c r="Y318" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>344.435</v>
+      </c>
+      <c r="C319" t="n">
+        <v>281.915</v>
+      </c>
+      <c r="D319" t="n">
+        <v>298.025</v>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="n">
+        <v>253.995</v>
+      </c>
+      <c r="G319" t="n">
+        <v>306.405</v>
+      </c>
+      <c r="H319" t="n">
+        <v>241.575</v>
+      </c>
+      <c r="I319" t="n">
+        <v>196.1609090909091</v>
+      </c>
+      <c r="J319" t="n">
+        <v>216.4194736842105</v>
+      </c>
+      <c r="K319" t="n">
+        <v>271.1171428571429</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="n">
+        <v>261.4924137931034</v>
+      </c>
+      <c r="O319" t="n">
+        <v>270.0825</v>
+      </c>
+      <c r="P319" t="n">
+        <v>238.1414285714285</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>257.05</v>
+      </c>
+      <c r="R319" t="n">
+        <v>307.6592307692308</v>
+      </c>
+      <c r="S319" t="inlineStr"/>
+      <c r="T319" t="n">
+        <v>359.0366666666666</v>
+      </c>
+      <c r="U319" t="n">
+        <v>330.05</v>
+      </c>
+      <c r="V319" t="n">
+        <v>264.78</v>
+      </c>
+      <c r="W319" t="n">
+        <v>324.1966666666667</v>
+      </c>
+      <c r="X319" t="n">
+        <v>344.3285714285714</v>
+      </c>
+      <c r="Y319" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21469,7 +21552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24896,6 +24979,16 @@
         </is>
       </c>
       <c r="B342" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -25064,28 +25157,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.6300432456237977</v>
+        <v>0.6298839420195715</v>
       </c>
       <c r="J2" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03627222352937665</v>
+        <v>0.03662461910634973</v>
       </c>
       <c r="M2" t="n">
-        <v>17.2968702057431</v>
+        <v>17.20594298861675</v>
       </c>
       <c r="N2" t="n">
-        <v>582.9506332916175</v>
+        <v>579.8499651227899</v>
       </c>
       <c r="O2" t="n">
-        <v>24.1443706335787</v>
+        <v>24.08007402652222</v>
       </c>
       <c r="P2" t="n">
-        <v>328.5453609806524</v>
+        <v>328.5469081927898</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25136,28 +25229,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.1435433216344325</v>
+        <v>0.0631034541413249</v>
       </c>
       <c r="J3" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002839719930367024</v>
+        <v>0.0005324808613359489</v>
       </c>
       <c r="M3" t="n">
-        <v>15.51457696169079</v>
+        <v>15.96627028408783</v>
       </c>
       <c r="N3" t="n">
-        <v>403.6098454642547</v>
+        <v>420.4232326412364</v>
       </c>
       <c r="O3" t="n">
-        <v>20.09004344107435</v>
+        <v>20.50422475104183</v>
       </c>
       <c r="P3" t="n">
-        <v>326.0277337273232</v>
+        <v>326.8094908203711</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25214,28 +25307,28 @@
         <v>0.0931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1755838891168564</v>
+        <v>0.1535758324996143</v>
       </c>
       <c r="J4" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007194323037224892</v>
+        <v>0.005487426589985134</v>
       </c>
       <c r="M4" t="n">
-        <v>11.54487567040009</v>
+        <v>11.63142942779759</v>
       </c>
       <c r="N4" t="n">
-        <v>235.0573826630948</v>
+        <v>237.1379633266211</v>
       </c>
       <c r="O4" t="n">
-        <v>15.33158121861848</v>
+        <v>15.39928450697048</v>
       </c>
       <c r="P4" t="n">
-        <v>320.2431829212087</v>
+        <v>320.4586520858787</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25289,7 +25382,7 @@
         <v>0.4377392906139549</v>
       </c>
       <c r="J5" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
         <v>149</v>
@@ -25358,28 +25451,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.3880943969388292</v>
+        <v>0.345687697470856</v>
       </c>
       <c r="J6" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K6" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009580569455552745</v>
+        <v>0.007603880689414644</v>
       </c>
       <c r="M6" t="n">
-        <v>26.7494606475586</v>
+        <v>26.86520375991032</v>
       </c>
       <c r="N6" t="n">
-        <v>911.139183669777</v>
+        <v>917.2708737853488</v>
       </c>
       <c r="O6" t="n">
-        <v>30.18508213786699</v>
+        <v>30.28648004944366</v>
       </c>
       <c r="P6" t="n">
-        <v>291.0191295380267</v>
+        <v>291.4083169047867</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25430,28 +25523,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.1953299942896568</v>
+        <v>0.1870905240452409</v>
       </c>
       <c r="J7" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003948588869569281</v>
+        <v>0.003652390136230976</v>
       </c>
       <c r="M7" t="n">
-        <v>17.5073470500001</v>
+        <v>17.48832028612921</v>
       </c>
       <c r="N7" t="n">
-        <v>524.0557390872253</v>
+        <v>522.1498620036025</v>
       </c>
       <c r="O7" t="n">
-        <v>22.89226373880978</v>
+        <v>22.85059872308825</v>
       </c>
       <c r="P7" t="n">
-        <v>311.2526836345933</v>
+        <v>311.3338764885397</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25508,28 +25601,28 @@
         <v>0.0902</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1196928186708647</v>
+        <v>-0.2455358852210246</v>
       </c>
       <c r="J8" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00168630462135988</v>
+        <v>0.006486479737205841</v>
       </c>
       <c r="M8" t="n">
-        <v>15.34190536437034</v>
+        <v>16.12943813461068</v>
       </c>
       <c r="N8" t="n">
-        <v>454.5169260412982</v>
+        <v>498.9763073912682</v>
       </c>
       <c r="O8" t="n">
-        <v>21.31940257233533</v>
+        <v>22.33777758397796</v>
       </c>
       <c r="P8" t="n">
-        <v>324.0317012503152</v>
+        <v>325.2944045445238</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25586,28 +25679,28 @@
         <v>0.066</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02389439984547998</v>
+        <v>-0.2827068031822262</v>
       </c>
       <c r="J9" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K9" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L9" t="n">
-        <v>6.749628233437832e-05</v>
+        <v>0.006866897912926606</v>
       </c>
       <c r="M9" t="n">
-        <v>13.37834537058424</v>
+        <v>15.50641006361664</v>
       </c>
       <c r="N9" t="n">
-        <v>496.9672246509521</v>
+        <v>685.2704317270388</v>
       </c>
       <c r="O9" t="n">
-        <v>22.29276170982304</v>
+        <v>26.17767047938068</v>
       </c>
       <c r="P9" t="n">
-        <v>329.9111403703123</v>
+        <v>332.3531921230643</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25664,28 +25757,28 @@
         <v>0.1194</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0984793246133754</v>
+        <v>-0.2848761435180232</v>
       </c>
       <c r="J10" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K10" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009256295290908101</v>
+        <v>0.00670718226556144</v>
       </c>
       <c r="M10" t="n">
-        <v>18.98701166967254</v>
+        <v>20.05904025133268</v>
       </c>
       <c r="N10" t="n">
-        <v>559.0496085399967</v>
+        <v>647.8070692101631</v>
       </c>
       <c r="O10" t="n">
-        <v>23.64422992063807</v>
+        <v>25.45205432200244</v>
       </c>
       <c r="P10" t="n">
-        <v>317.7441880775896</v>
+        <v>319.6215480939537</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25736,28 +25829,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.04649195758469658</v>
+        <v>-0.07984780555521596</v>
       </c>
       <c r="J11" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K11" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001649806139226717</v>
+        <v>0.0004862121980523382</v>
       </c>
       <c r="M11" t="n">
-        <v>22.91462851921358</v>
+        <v>23.00625046651676</v>
       </c>
       <c r="N11" t="n">
-        <v>688.2738561943499</v>
+        <v>691.4655059873076</v>
       </c>
       <c r="O11" t="n">
-        <v>26.23497391259138</v>
+        <v>26.29573170663459</v>
       </c>
       <c r="P11" t="n">
-        <v>309.2401530618276</v>
+        <v>309.5831622451711</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25811,7 +25904,7 @@
         <v>-0.1445496082201392</v>
       </c>
       <c r="J12" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K12" t="n">
         <v>186</v>
@@ -25889,7 +25982,7 @@
         <v>-0.920894628615308</v>
       </c>
       <c r="J13" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K13" t="n">
         <v>197</v>
@@ -25964,28 +26057,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2440567827647964</v>
+        <v>-0.2705217342805641</v>
       </c>
       <c r="J14" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K14" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004226626124902766</v>
+        <v>0.005197744695816131</v>
       </c>
       <c r="M14" t="n">
-        <v>23.70641921110966</v>
+        <v>23.74862168292611</v>
       </c>
       <c r="N14" t="n">
-        <v>778.6208374011769</v>
+        <v>779.9535861723289</v>
       </c>
       <c r="O14" t="n">
-        <v>27.90377819223011</v>
+        <v>27.92764913436734</v>
       </c>
       <c r="P14" t="n">
-        <v>300.7359562677661</v>
+        <v>300.9981307978882</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26036,28 +26129,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1390899969785665</v>
+        <v>-0.1601291776902111</v>
       </c>
       <c r="J15" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K15" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001448887522904396</v>
+        <v>0.001924368533999132</v>
       </c>
       <c r="M15" t="n">
-        <v>23.33404265057103</v>
+        <v>23.34815173284236</v>
       </c>
       <c r="N15" t="n">
-        <v>761.710870969197</v>
+        <v>761.9587233619864</v>
       </c>
       <c r="O15" t="n">
-        <v>27.59910996697533</v>
+        <v>27.60359982614562</v>
       </c>
       <c r="P15" t="n">
-        <v>302.4166321822155</v>
+        <v>302.6237514465703</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26114,28 +26207,28 @@
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04465760188971708</v>
+        <v>-0.0624100651067837</v>
       </c>
       <c r="J16" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K16" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" t="n">
-        <v>7.43119365893552e-05</v>
+        <v>0.0001440934909895386</v>
       </c>
       <c r="M16" t="n">
-        <v>33.46205507726127</v>
+        <v>33.7920075629504</v>
       </c>
       <c r="N16" t="n">
-        <v>1575.114417083779</v>
+        <v>1597.726618503241</v>
       </c>
       <c r="O16" t="n">
-        <v>39.68771115954885</v>
+        <v>39.97157262984834</v>
       </c>
       <c r="P16" t="n">
-        <v>299.9256472595756</v>
+        <v>300.9509741739819</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26186,28 +26279,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.8914576588117068</v>
+        <v>-0.9171930779727183</v>
       </c>
       <c r="J17" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K17" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03841534966964921</v>
+        <v>0.04075278374951996</v>
       </c>
       <c r="M17" t="n">
-        <v>29.04889414624876</v>
+        <v>28.99190090559243</v>
       </c>
       <c r="N17" t="n">
-        <v>1098.707180354565</v>
+        <v>1097.646249100357</v>
       </c>
       <c r="O17" t="n">
-        <v>33.14675218410644</v>
+        <v>33.13074477128997</v>
       </c>
       <c r="P17" t="n">
-        <v>309.6428338974048</v>
+        <v>309.9007665101063</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26258,28 +26351,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.1438069379322288</v>
+        <v>-0.150440703091374</v>
       </c>
       <c r="J18" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K18" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005530931278427409</v>
+        <v>0.006083750272026234</v>
       </c>
       <c r="M18" t="n">
-        <v>11.21928819774247</v>
+        <v>11.20769112199483</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0994182473868</v>
+        <v>204.6098904512268</v>
       </c>
       <c r="O18" t="n">
-        <v>14.32129247824325</v>
+        <v>14.30419135957104</v>
       </c>
       <c r="P18" t="n">
-        <v>320.4958227143293</v>
+        <v>320.5618626212024</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26339,7 +26432,7 @@
         <v>-0.003342701596019002</v>
       </c>
       <c r="J19" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K19" t="n">
         <v>252</v>
@@ -26414,28 +26507,28 @@
         <v>0.0834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1245879089556631</v>
+        <v>0.1376366483089662</v>
       </c>
       <c r="J20" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K20" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00750087275174216</v>
+        <v>0.009093540824501423</v>
       </c>
       <c r="M20" t="n">
-        <v>7.848481803086729</v>
+        <v>7.887309700940331</v>
       </c>
       <c r="N20" t="n">
-        <v>111.3438976470156</v>
+        <v>112.2511938644613</v>
       </c>
       <c r="O20" t="n">
-        <v>10.55196179139289</v>
+        <v>10.59486639200615</v>
       </c>
       <c r="P20" t="n">
-        <v>337.1280967256013</v>
+        <v>336.9962576468981</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26492,28 +26585,28 @@
         <v>0.0576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2781794412573581</v>
+        <v>0.2851822355342406</v>
       </c>
       <c r="J21" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K21" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01619865647269814</v>
+        <v>0.01714170883011101</v>
       </c>
       <c r="M21" t="n">
-        <v>11.64462753431011</v>
+        <v>11.62280163811578</v>
       </c>
       <c r="N21" t="n">
-        <v>262.9695450929204</v>
+        <v>261.953246007003</v>
       </c>
       <c r="O21" t="n">
-        <v>16.21633574803261</v>
+        <v>16.18496975613495</v>
       </c>
       <c r="P21" t="n">
-        <v>315.1164174645357</v>
+        <v>315.0473265608664</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26564,28 +26657,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.01407328920634369</v>
+        <v>-0.01494781823854284</v>
       </c>
       <c r="J22" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K22" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L22" t="n">
-        <v>1.668996164916337e-05</v>
+        <v>1.882067258285325e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>22.33120730695394</v>
+        <v>22.40108513842727</v>
       </c>
       <c r="N22" t="n">
-        <v>671.9361407795144</v>
+        <v>674.7395906773842</v>
       </c>
       <c r="O22" t="n">
-        <v>25.92173105291224</v>
+        <v>25.97575005033318</v>
       </c>
       <c r="P22" t="n">
-        <v>300.7052377664316</v>
+        <v>300.9869897066395</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26642,28 +26735,28 @@
         <v>0.0926</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3135048447111677</v>
+        <v>0.3090030124628853</v>
       </c>
       <c r="J23" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K23" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01717865346552194</v>
+        <v>0.01681269074774638</v>
       </c>
       <c r="M23" t="n">
-        <v>13.06867064523552</v>
+        <v>13.04684674916525</v>
       </c>
       <c r="N23" t="n">
-        <v>302.8352096297095</v>
+        <v>301.7292237952718</v>
       </c>
       <c r="O23" t="n">
-        <v>17.40216106205518</v>
+        <v>17.37035474005271</v>
       </c>
       <c r="P23" t="n">
-        <v>322.1772391971634</v>
+        <v>322.2228403054777</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26720,28 +26813,28 @@
         <v>0.0771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1353144429511464</v>
+        <v>0.1365353843577794</v>
       </c>
       <c r="J24" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K24" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008225627559975024</v>
+        <v>0.008430667679909631</v>
       </c>
       <c r="M24" t="n">
-        <v>8.247695432323745</v>
+        <v>8.221604412542574</v>
       </c>
       <c r="N24" t="n">
-        <v>120.3415999164385</v>
+        <v>119.8794831228202</v>
       </c>
       <c r="O24" t="n">
-        <v>10.97003190134097</v>
+        <v>10.94894895059887</v>
       </c>
       <c r="P24" t="n">
-        <v>339.1506905823863</v>
+        <v>339.1383641658561</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26779,7 +26872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y318"/>
+  <dimension ref="A1:Y319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57533,7 +57626,11 @@
           <t>-38.58478804652808,174.6296659727132</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr"/>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-38.58411870320103,174.63036872750664</t>
+        </is>
+      </c>
       <c r="D318" t="inlineStr">
         <is>
           <t>-38.58340898739317,174.6302413240389</t>
@@ -57550,9 +57647,21 @@
           <t>-38.58126736549716,174.63063096903176</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-38.580563778588726,174.63086509521713</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-38.57985761591887,174.63153564521377</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-38.57915703317405,174.6312568421004</t>
+        </is>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>-38.57845818552394,174.63068170675524</t>
@@ -57570,7 +57679,11 @@
           <t>-38.57567809509429,174.63080658407108</t>
         </is>
       </c>
-      <c r="P318" t="inlineStr"/>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>-38.57498366200634,174.63118117330495</t>
+        </is>
+      </c>
       <c r="Q318" t="inlineStr">
         <is>
           <t>-38.57429183699804,174.63097636001308</t>
@@ -57606,6 +57719,117 @@
       <c r="Y318" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-38.58478409657301,174.62958474381156</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-38.58411862521437,174.63036712356535</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-38.58340934391409,174.63024865626923</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-38.58198249614424,174.63085332030994</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-38.58126957170104,174.6302556414509</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-38.58056296436895,174.6310035174036</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-38.579857657812646,174.63152852905327</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-38.57915678056082,174.631299768204</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-38.578458220614976,174.63067573847644</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>-38.57638162859405,174.63085421230653</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>-38.5756777560365,174.6307908660511</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>-38.57498390698429,174.6311925314727</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>-38.574293020981365,174.63100995412663</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>-38.573581908396115,174.63049528270545</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr"/>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>-38.57215134949348,174.63005620862972</t>
+        </is>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>-38.57146087827656,174.630445720424</t>
+        </is>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>-38.57076855216381,174.63122537330426</t>
+        </is>
+      </c>
+      <c r="W319" t="inlineStr">
+        <is>
+          <t>-38.57005574308942,174.6305741066394</t>
+        </is>
+      </c>
+      <c r="X319" t="inlineStr">
+        <is>
+          <t>-38.569349710004914,174.6303800661309</t>
+        </is>
+      </c>
+      <c r="Y319" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y319"/>
+  <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21335,7 +21335,9 @@
       <c r="D317" t="n">
         <v>327.565</v>
       </c>
-      <c r="E317" t="inlineStr"/>
+      <c r="E317" t="n">
+        <v>223.935</v>
+      </c>
       <c r="F317" t="n">
         <v>280.335</v>
       </c>
@@ -21419,15 +21421,9 @@
       <c r="G318" t="n">
         <v>273.705</v>
       </c>
-      <c r="H318" t="n">
-        <v>253.635</v>
-      </c>
-      <c r="I318" t="n">
-        <v>195.5409090909091</v>
-      </c>
-      <c r="J318" t="n">
-        <v>220.1594736842105</v>
-      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
         <v>270.5971428571428</v>
       </c>
@@ -21490,15 +21486,9 @@
       <c r="G319" t="n">
         <v>306.405</v>
       </c>
-      <c r="H319" t="n">
-        <v>241.575</v>
-      </c>
-      <c r="I319" t="n">
-        <v>196.1609090909091</v>
-      </c>
-      <c r="J319" t="n">
-        <v>216.4194736842105</v>
-      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
         <v>271.1171428571429</v>
       </c>
@@ -21538,6 +21528,81 @@
       <c r="Y319" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="n">
+        <v>304.905</v>
+      </c>
+      <c r="D320" t="n">
+        <v>318.835</v>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="n">
+        <v>271.655</v>
+      </c>
+      <c r="G320" t="n">
+        <v>295.125</v>
+      </c>
+      <c r="H320" t="n">
+        <v>288.075</v>
+      </c>
+      <c r="I320" t="n">
+        <v>278.0163636363636</v>
+      </c>
+      <c r="J320" t="n">
+        <v>276.9421052631579</v>
+      </c>
+      <c r="K320" t="n">
+        <v>282.4857142857143</v>
+      </c>
+      <c r="L320" t="n">
+        <v>265.2427710843373</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="n">
+        <v>274.3741379310345</v>
+      </c>
+      <c r="O320" t="n">
+        <v>281.1025</v>
+      </c>
+      <c r="P320" t="n">
+        <v>250.3671428571429</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>276.2729411764706</v>
+      </c>
+      <c r="R320" t="n">
+        <v>321.7953846153846</v>
+      </c>
+      <c r="S320" t="n">
+        <v>354.97</v>
+      </c>
+      <c r="T320" t="n">
+        <v>363.94</v>
+      </c>
+      <c r="U320" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="V320" t="n">
+        <v>276.35</v>
+      </c>
+      <c r="W320" t="n">
+        <v>350.07</v>
+      </c>
+      <c r="X320" t="n">
+        <v>359.6428571428571</v>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -21552,7 +21617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24990,6 +25055,16 @@
       </c>
       <c r="B343" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -25160,7 +25235,7 @@
         <v>0.6298839420195715</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" t="n">
         <v>188</v>
@@ -25229,28 +25304,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.0631034541413249</v>
+        <v>0.04336295003579253</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K3" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005324808613359489</v>
+        <v>0.0002522133564426543</v>
       </c>
       <c r="M3" t="n">
-        <v>15.96627028408783</v>
+        <v>16.03898901953286</v>
       </c>
       <c r="N3" t="n">
-        <v>420.4232326412364</v>
+        <v>420.9983547203532</v>
       </c>
       <c r="O3" t="n">
-        <v>20.50422475104183</v>
+        <v>20.51824443563224</v>
       </c>
       <c r="P3" t="n">
-        <v>326.8094908203711</v>
+        <v>327.0025949969086</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25307,28 +25382,28 @@
         <v>0.0931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1535758324996143</v>
+        <v>0.1490086609126361</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K4" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005487426589985134</v>
+        <v>0.005208968869352515</v>
       </c>
       <c r="M4" t="n">
-        <v>11.63142942779759</v>
+        <v>11.60817279541644</v>
       </c>
       <c r="N4" t="n">
-        <v>237.1379633266211</v>
+        <v>236.2233318464793</v>
       </c>
       <c r="O4" t="n">
-        <v>15.39928450697048</v>
+        <v>15.36955860935763</v>
       </c>
       <c r="P4" t="n">
-        <v>320.4586520858787</v>
+        <v>320.5036260116773</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25379,28 +25454,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.4377392906139549</v>
+        <v>0.3178600671412745</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K5" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06051323777828044</v>
+        <v>0.02398394803060022</v>
       </c>
       <c r="M5" t="n">
-        <v>9.957611697170025</v>
+        <v>10.6302627108982</v>
       </c>
       <c r="N5" t="n">
-        <v>179.0175292045961</v>
+        <v>248.7810259571089</v>
       </c>
       <c r="O5" t="n">
-        <v>13.37974324135542</v>
+        <v>15.77279385388362</v>
       </c>
       <c r="P5" t="n">
-        <v>316.9875026379177</v>
+        <v>318.0787110813861</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25451,28 +25526,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.345687697470856</v>
+        <v>0.3199604805374814</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K6" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007603880689414644</v>
+        <v>0.006558179717646717</v>
       </c>
       <c r="M6" t="n">
-        <v>26.86520375991032</v>
+        <v>26.88307489142098</v>
       </c>
       <c r="N6" t="n">
-        <v>917.2708737853488</v>
+        <v>916.7295138636351</v>
       </c>
       <c r="O6" t="n">
-        <v>30.28648004944366</v>
+        <v>30.27754141048502</v>
       </c>
       <c r="P6" t="n">
-        <v>291.4083169047867</v>
+        <v>291.645809373293</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25523,28 +25598,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.1870905240452409</v>
+        <v>0.1695269853992052</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K7" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003652390136230976</v>
+        <v>0.003015985432706092</v>
       </c>
       <c r="M7" t="n">
-        <v>17.48832028612921</v>
+        <v>17.53452170546356</v>
       </c>
       <c r="N7" t="n">
-        <v>522.1498620036025</v>
+        <v>521.7643121506154</v>
       </c>
       <c r="O7" t="n">
-        <v>22.85059872308825</v>
+        <v>22.84216084678977</v>
       </c>
       <c r="P7" t="n">
-        <v>311.3338764885397</v>
+        <v>311.507927193262</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25601,28 +25676,28 @@
         <v>0.0902</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2455358852210246</v>
+        <v>-0.1486083371917475</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K8" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006486479737205841</v>
+        <v>0.002592458022891986</v>
       </c>
       <c r="M8" t="n">
-        <v>16.12943813461068</v>
+        <v>15.48179685573576</v>
       </c>
       <c r="N8" t="n">
-        <v>498.9763073912682</v>
+        <v>457.3540146127597</v>
       </c>
       <c r="O8" t="n">
-        <v>22.33777758397796</v>
+        <v>21.3858367760712</v>
       </c>
       <c r="P8" t="n">
-        <v>325.2944045445238</v>
+        <v>324.3236158766995</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25679,28 +25754,28 @@
         <v>0.066</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2827068031822262</v>
+        <v>-0.07498416465852489</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K9" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006866897912926606</v>
+        <v>0.0006520234188670537</v>
       </c>
       <c r="M9" t="n">
-        <v>15.50641006361664</v>
+        <v>13.7044547600754</v>
       </c>
       <c r="N9" t="n">
-        <v>685.2704317270388</v>
+        <v>508.7801930756299</v>
       </c>
       <c r="O9" t="n">
-        <v>26.17767047938068</v>
+        <v>22.5561564340122</v>
       </c>
       <c r="P9" t="n">
-        <v>332.3531921230643</v>
+        <v>330.3965414096695</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25757,28 +25832,28 @@
         <v>0.1194</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2848761435180232</v>
+        <v>-0.1362699649459462</v>
       </c>
       <c r="J10" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K10" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00670718226556144</v>
+        <v>0.00176505325662546</v>
       </c>
       <c r="M10" t="n">
-        <v>20.05904025133268</v>
+        <v>19.1421916793073</v>
       </c>
       <c r="N10" t="n">
-        <v>647.8070692101631</v>
+        <v>563.6546534671248</v>
       </c>
       <c r="O10" t="n">
-        <v>25.45205432200244</v>
+        <v>23.7414122045662</v>
       </c>
       <c r="P10" t="n">
-        <v>319.6215480939537</v>
+        <v>318.1271582553751</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25829,28 +25904,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.07984780555521596</v>
+        <v>-0.1024108631632994</v>
       </c>
       <c r="J11" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K11" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004862121980523382</v>
+        <v>0.0008032839267628766</v>
       </c>
       <c r="M11" t="n">
-        <v>23.00625046651676</v>
+        <v>23.03019208031772</v>
       </c>
       <c r="N11" t="n">
-        <v>691.4655059873076</v>
+        <v>691.1160345168947</v>
       </c>
       <c r="O11" t="n">
-        <v>26.29573170663459</v>
+        <v>26.28908584407025</v>
       </c>
       <c r="P11" t="n">
-        <v>309.5831622451711</v>
+        <v>309.8165242098234</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25901,28 +25976,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.1445496082201392</v>
+        <v>-0.1916152084286052</v>
       </c>
       <c r="J12" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K12" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001686749018094624</v>
+        <v>0.002939736470513932</v>
       </c>
       <c r="M12" t="n">
-        <v>21.0765655645957</v>
+        <v>21.30741645557321</v>
       </c>
       <c r="N12" t="n">
-        <v>692.899045048548</v>
+        <v>701.2108533931406</v>
       </c>
       <c r="O12" t="n">
-        <v>26.32297561159353</v>
+        <v>26.48038620173695</v>
       </c>
       <c r="P12" t="n">
-        <v>316.7187316263452</v>
+        <v>317.1790905033082</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25982,7 +26057,7 @@
         <v>-0.920894628615308</v>
       </c>
       <c r="J13" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K13" t="n">
         <v>197</v>
@@ -26057,28 +26132,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2705217342805641</v>
+        <v>-0.2862840382924077</v>
       </c>
       <c r="J14" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K14" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005197744695816131</v>
+        <v>0.005851837378977653</v>
       </c>
       <c r="M14" t="n">
-        <v>23.74862168292611</v>
+        <v>23.73005733723634</v>
       </c>
       <c r="N14" t="n">
-        <v>779.9535861723289</v>
+        <v>778.1910071141417</v>
       </c>
       <c r="O14" t="n">
-        <v>27.92764913436734</v>
+        <v>27.89607512024123</v>
       </c>
       <c r="P14" t="n">
-        <v>300.9981307978882</v>
+        <v>301.1552314712554</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26129,28 +26204,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1601291776902111</v>
+        <v>-0.1728578917653806</v>
       </c>
       <c r="J15" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K15" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001924368533999132</v>
+        <v>0.002254184907722112</v>
       </c>
       <c r="M15" t="n">
-        <v>23.34815173284236</v>
+        <v>23.31644335549813</v>
       </c>
       <c r="N15" t="n">
-        <v>761.9587233619864</v>
+        <v>759.9851637553562</v>
       </c>
       <c r="O15" t="n">
-        <v>27.60359982614562</v>
+        <v>27.56782841928896</v>
       </c>
       <c r="P15" t="n">
-        <v>302.6237514465703</v>
+        <v>302.7498886202478</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26207,28 +26282,28 @@
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0624100651067837</v>
+        <v>-0.1043481194600964</v>
       </c>
       <c r="J16" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K16" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001440934909895386</v>
+        <v>0.0004031593024717006</v>
       </c>
       <c r="M16" t="n">
-        <v>33.7920075629504</v>
+        <v>33.88557371373982</v>
       </c>
       <c r="N16" t="n">
-        <v>1597.726618503241</v>
+        <v>1601.63161774673</v>
       </c>
       <c r="O16" t="n">
-        <v>39.97157262984834</v>
+        <v>40.02039002492018</v>
       </c>
       <c r="P16" t="n">
-        <v>300.9509741739819</v>
+        <v>301.3555780790309</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26279,28 +26354,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.9171930779727183</v>
+        <v>-0.9259257494649473</v>
       </c>
       <c r="J17" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K17" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04075278374951996</v>
+        <v>0.0418229654889245</v>
       </c>
       <c r="M17" t="n">
-        <v>28.99190090559243</v>
+        <v>28.87935850464038</v>
       </c>
       <c r="N17" t="n">
-        <v>1097.646249100357</v>
+        <v>1092.812657605042</v>
       </c>
       <c r="O17" t="n">
-        <v>33.13074477128997</v>
+        <v>33.05771706583869</v>
       </c>
       <c r="P17" t="n">
-        <v>309.9007665101063</v>
+        <v>309.9888369492203</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26351,28 +26426,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.150440703091374</v>
+        <v>-0.1467669415146998</v>
       </c>
       <c r="J18" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K18" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006083750272026234</v>
+        <v>0.005831280911388848</v>
       </c>
       <c r="M18" t="n">
-        <v>11.20769112199483</v>
+        <v>11.18480103440128</v>
       </c>
       <c r="N18" t="n">
-        <v>204.6098904512268</v>
+        <v>203.8936020285383</v>
       </c>
       <c r="O18" t="n">
-        <v>14.30419135957104</v>
+        <v>14.27913169728952</v>
       </c>
       <c r="P18" t="n">
-        <v>320.5618626212024</v>
+        <v>320.5250680973976</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26429,28 +26504,28 @@
         <v>0.0788</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.003342701596019002</v>
+        <v>0.00652546491400321</v>
       </c>
       <c r="J19" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K19" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L19" t="n">
-        <v>3.289959818686405e-06</v>
+        <v>1.258421438099511e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>10.20675672081535</v>
+        <v>10.20946608442322</v>
       </c>
       <c r="N19" t="n">
-        <v>184.819046283649</v>
+        <v>184.7923813387691</v>
       </c>
       <c r="O19" t="n">
-        <v>13.59481689040529</v>
+        <v>13.59383615241735</v>
       </c>
       <c r="P19" t="n">
-        <v>341.6342515947166</v>
+        <v>341.5350998558964</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26507,28 +26582,28 @@
         <v>0.0834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1376366483089662</v>
+        <v>0.1539545885183051</v>
       </c>
       <c r="J20" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K20" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L20" t="n">
-        <v>0.009093540824501423</v>
+        <v>0.01122371371223252</v>
       </c>
       <c r="M20" t="n">
-        <v>7.887309700940331</v>
+        <v>7.943009671481527</v>
       </c>
       <c r="N20" t="n">
-        <v>112.2511938644613</v>
+        <v>113.9005296866624</v>
       </c>
       <c r="O20" t="n">
-        <v>10.59486639200615</v>
+        <v>10.67241911127287</v>
       </c>
       <c r="P20" t="n">
-        <v>336.9962576468981</v>
+        <v>336.8303967834763</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26585,28 +26660,28 @@
         <v>0.0576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2851822355342406</v>
+        <v>0.3155501521605045</v>
       </c>
       <c r="J21" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K21" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01714170883011101</v>
+        <v>0.02064615152627358</v>
       </c>
       <c r="M21" t="n">
-        <v>11.62280163811578</v>
+        <v>11.72388031387715</v>
       </c>
       <c r="N21" t="n">
-        <v>261.953246007003</v>
+        <v>266.3890093826187</v>
       </c>
       <c r="O21" t="n">
-        <v>16.18496975613495</v>
+        <v>16.32142792106802</v>
       </c>
       <c r="P21" t="n">
-        <v>315.0473265608664</v>
+        <v>314.745853879944</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26657,28 +26732,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.01494781823854284</v>
+        <v>-0.03430866812387548</v>
       </c>
       <c r="J22" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K22" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="n">
-        <v>1.882067258285325e-05</v>
+        <v>9.957931352622129e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>22.40108513842727</v>
+        <v>22.41445992530292</v>
       </c>
       <c r="N22" t="n">
-        <v>674.7395906773842</v>
+        <v>674.3223420881645</v>
       </c>
       <c r="O22" t="n">
-        <v>25.97575005033318</v>
+        <v>25.9677173060738</v>
       </c>
       <c r="P22" t="n">
-        <v>300.9869897066395</v>
+        <v>301.1761046690318</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26735,28 +26810,28 @@
         <v>0.0926</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3090030124628853</v>
+        <v>0.3240401828265849</v>
       </c>
       <c r="J23" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K23" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01681269074774638</v>
+        <v>0.01849747550951242</v>
       </c>
       <c r="M23" t="n">
-        <v>13.04684674916525</v>
+        <v>13.04945687731431</v>
       </c>
       <c r="N23" t="n">
-        <v>301.7292237952718</v>
+        <v>302.1051171994935</v>
       </c>
       <c r="O23" t="n">
-        <v>17.37035474005271</v>
+        <v>17.38117134141119</v>
       </c>
       <c r="P23" t="n">
-        <v>322.2228403054777</v>
+        <v>322.0696179478555</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26813,28 +26888,28 @@
         <v>0.0771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1365353843577794</v>
+        <v>0.1485362890210307</v>
       </c>
       <c r="J24" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K24" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008430667679909631</v>
+        <v>0.009939328884152165</v>
       </c>
       <c r="M24" t="n">
-        <v>8.221604412542574</v>
+        <v>8.251138249106315</v>
       </c>
       <c r="N24" t="n">
-        <v>119.8794831228202</v>
+        <v>120.5318960189066</v>
       </c>
       <c r="O24" t="n">
-        <v>10.94894895059887</v>
+        <v>10.97870192777391</v>
       </c>
       <c r="P24" t="n">
-        <v>339.1383641658561</v>
+        <v>339.0164644320878</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26872,7 +26947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y319"/>
+  <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57517,7 +57592,11 @@
           <t>-38.58339288776502,174.62991022807262</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr"/>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-38.58272738870233,174.63116524520524</t>
+        </is>
+      </c>
       <c r="F317" t="inlineStr">
         <is>
           <t>-38.5819806112273,174.63055099031453</t>
@@ -57647,21 +57726,9 @@
           <t>-38.58126736549716,174.63063096903176</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>-38.580563778588726,174.63086509521713</t>
-        </is>
-      </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>-38.57985761591887,174.63153564521377</t>
-        </is>
-      </c>
-      <c r="J318" t="inlineStr">
-        <is>
-          <t>-38.57915703317405,174.6312568421004</t>
-        </is>
-      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>-38.57845818552394,174.63068170675524</t>
@@ -57754,21 +57821,9 @@
           <t>-38.58126957170104,174.6302556414509</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>-38.58056296436895,174.6310035174036</t>
-        </is>
-      </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>-38.579857657812646,174.63152852905327</t>
-        </is>
-      </c>
-      <c r="J319" t="inlineStr">
-        <is>
-          <t>-38.57915678056082,174.631299768204</t>
-        </is>
-      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>-38.578458220614976,174.63067573847644</t>
@@ -57830,6 +57885,121 @@
       <c r="Y319" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-38.58410581839021,174.63010373352884</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-38.58339775117743,174.6300102442469</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-38.5819812324632,174.63065061918297</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-38.581268810797894,174.63038511225687</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-38.58056610287224,174.6304697999686</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-38.57986318503675,174.63058901827608</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-38.57916086654589,174.63060511549014</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-38.57845898772154,174.63054525615706</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-38.57776738800737,174.63074682953706</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-38.5763784405466,174.63070641875072</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>-38.575675028647936,174.6306644335133</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>-38.57498088162349,174.6310522671182</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>-38.57428525300919,174.63078955220584</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>-38.57357340481705,174.63033340401086</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>-38.572853616873765,174.63002808537007</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>-38.57214863377211,174.63000004058242</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>-38.571452080817345,174.63014259916335</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>-38.57076623289594,174.6310926224284</t>
+        </is>
+      </c>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>-38.57004971960803,174.63027727192033</t>
+        </is>
+      </c>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>-38.569345650234006,174.6302043903919</t>
+        </is>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y320"/>
+  <dimension ref="A1:Y323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21335,9 +21335,7 @@
       <c r="D317" t="n">
         <v>327.565</v>
       </c>
-      <c r="E317" t="n">
-        <v>223.935</v>
-      </c>
+      <c r="E317" t="inlineStr"/>
       <c r="F317" t="n">
         <v>280.335</v>
       </c>
@@ -21537,7 +21535,9 @@
           <t>2025-07-25 22:06:18+00:00</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr"/>
+      <c r="B320" t="n">
+        <v>299.985</v>
+      </c>
       <c r="C320" t="n">
         <v>304.905</v>
       </c>
@@ -21601,6 +21601,241 @@
         <v>359.6428571428571</v>
       </c>
       <c r="Y320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>270.035</v>
+      </c>
+      <c r="C321" t="n">
+        <v>292.945</v>
+      </c>
+      <c r="D321" t="n">
+        <v>305.145</v>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="n">
+        <v>242.145</v>
+      </c>
+      <c r="G321" t="n">
+        <v>314.065</v>
+      </c>
+      <c r="H321" t="n">
+        <v>310.905</v>
+      </c>
+      <c r="I321" t="n">
+        <v>238.6036363636364</v>
+      </c>
+      <c r="J321" t="n">
+        <v>255.0552631578948</v>
+      </c>
+      <c r="K321" t="n">
+        <v>262.3014285714286</v>
+      </c>
+      <c r="L321" t="n">
+        <v>252.848313253012</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="n">
+        <v>259.4875862068966</v>
+      </c>
+      <c r="O321" t="n">
+        <v>257.5525</v>
+      </c>
+      <c r="P321" t="n">
+        <v>239.3242857142857</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>251.1758823529412</v>
+      </c>
+      <c r="R321" t="n">
+        <v>299.1269230769231</v>
+      </c>
+      <c r="S321" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="T321" t="n">
+        <v>354.27</v>
+      </c>
+      <c r="U321" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="V321" t="n">
+        <v>240.34</v>
+      </c>
+      <c r="W321" t="n">
+        <v>319.84</v>
+      </c>
+      <c r="X321" t="n">
+        <v>326.9257142857143</v>
+      </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>293.89</v>
+      </c>
+      <c r="C322" t="n">
+        <v>297.93</v>
+      </c>
+      <c r="D322" t="n">
+        <v>321.99</v>
+      </c>
+      <c r="E322" t="n">
+        <v>205.42</v>
+      </c>
+      <c r="F322" t="n">
+        <v>276.01</v>
+      </c>
+      <c r="G322" t="n">
+        <v>319.27</v>
+      </c>
+      <c r="H322" t="n">
+        <v>321.64</v>
+      </c>
+      <c r="I322" t="n">
+        <v>278.6018181818181</v>
+      </c>
+      <c r="J322" t="n">
+        <v>283.3278947368421</v>
+      </c>
+      <c r="K322" t="n">
+        <v>287.6728571428571</v>
+      </c>
+      <c r="L322" t="n">
+        <v>278.7696385542169</v>
+      </c>
+      <c r="M322" t="n">
+        <v>219.48</v>
+      </c>
+      <c r="N322" t="n">
+        <v>274.5810344827586</v>
+      </c>
+      <c r="O322" t="n">
+        <v>272.52</v>
+      </c>
+      <c r="P322" t="n">
+        <v>259.7285714285715</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>276.2547058823529</v>
+      </c>
+      <c r="R322" t="n">
+        <v>321.0223076923077</v>
+      </c>
+      <c r="S322" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="T322" t="n">
+        <v>365.28</v>
+      </c>
+      <c r="U322" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="V322" t="n">
+        <v>281.8</v>
+      </c>
+      <c r="W322" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="X322" t="n">
+        <v>348.4414285714286</v>
+      </c>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="n">
+        <v>330.74</v>
+      </c>
+      <c r="D323" t="n">
+        <v>321.45</v>
+      </c>
+      <c r="E323" t="n">
+        <v>214.36</v>
+      </c>
+      <c r="F323" t="n">
+        <v>271.45</v>
+      </c>
+      <c r="G323" t="n">
+        <v>332.02</v>
+      </c>
+      <c r="H323" t="n">
+        <v>322.49</v>
+      </c>
+      <c r="I323" t="n">
+        <v>298.0518181818182</v>
+      </c>
+      <c r="J323" t="n">
+        <v>288.6605263157895</v>
+      </c>
+      <c r="K323" t="n">
+        <v>291.1857142857143</v>
+      </c>
+      <c r="L323" t="n">
+        <v>282.7885542168675</v>
+      </c>
+      <c r="M323" t="n">
+        <v>229.945</v>
+      </c>
+      <c r="N323" t="inlineStr"/>
+      <c r="O323" t="n">
+        <v>285.115</v>
+      </c>
+      <c r="P323" t="n">
+        <v>286.2571428571429</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>272.3658823529412</v>
+      </c>
+      <c r="R323" t="n">
+        <v>314.55</v>
+      </c>
+      <c r="S323" t="n">
+        <v>346.26</v>
+      </c>
+      <c r="T323" t="n">
+        <v>353.21</v>
+      </c>
+      <c r="U323" t="n">
+        <v>335.17</v>
+      </c>
+      <c r="V323" t="n">
+        <v>280.43</v>
+      </c>
+      <c r="W323" t="n">
+        <v>346.15</v>
+      </c>
+      <c r="X323" t="n">
+        <v>330.7428571428572</v>
+      </c>
+      <c r="Y323" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21617,7 +21852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25065,6 +25300,36 @@
       </c>
       <c r="B344" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -25232,28 +25497,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.6298839420195715</v>
+        <v>0.4656409460757984</v>
       </c>
       <c r="J2" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K2" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03662461910634973</v>
+        <v>0.01929996047598292</v>
       </c>
       <c r="M2" t="n">
-        <v>17.20594298861675</v>
+        <v>18.10828170527875</v>
       </c>
       <c r="N2" t="n">
-        <v>579.8499651227899</v>
+        <v>621.5555779170595</v>
       </c>
       <c r="O2" t="n">
-        <v>24.08007402652222</v>
+        <v>24.93101638355443</v>
       </c>
       <c r="P2" t="n">
-        <v>328.5469081927898</v>
+        <v>330.1530326836932</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25304,28 +25569,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.04336295003579253</v>
+        <v>-0.007404078590037707</v>
       </c>
       <c r="J3" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K3" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002522133564426543</v>
+        <v>7.376483290633118e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>16.03898901953286</v>
+        <v>16.23009163282102</v>
       </c>
       <c r="N3" t="n">
-        <v>420.9983547203532</v>
+        <v>424.8054703007008</v>
       </c>
       <c r="O3" t="n">
-        <v>20.51824443563224</v>
+        <v>20.61080954986244</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0025949969086</v>
+        <v>327.4999765925668</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25382,28 +25647,28 @@
         <v>0.0931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1490086609126361</v>
+        <v>0.1296468413895769</v>
       </c>
       <c r="J4" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K4" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005208968869352515</v>
+        <v>0.004020338858573114</v>
       </c>
       <c r="M4" t="n">
-        <v>11.60817279541644</v>
+        <v>11.57548760137306</v>
       </c>
       <c r="N4" t="n">
-        <v>236.2233318464793</v>
+        <v>234.7615753648726</v>
       </c>
       <c r="O4" t="n">
-        <v>15.36955860935763</v>
+        <v>15.32193118914429</v>
       </c>
       <c r="P4" t="n">
-        <v>320.5036260116773</v>
+        <v>320.6945968620639</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25454,28 +25719,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3178600671412745</v>
+        <v>0.1629479803076547</v>
       </c>
       <c r="J5" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K5" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02398394803060022</v>
+        <v>0.004531351965218811</v>
       </c>
       <c r="M5" t="n">
-        <v>10.6302627108982</v>
+        <v>11.64988647574264</v>
       </c>
       <c r="N5" t="n">
-        <v>248.7810259571089</v>
+        <v>355.2946930904618</v>
       </c>
       <c r="O5" t="n">
-        <v>15.77279385388362</v>
+        <v>18.84926240176156</v>
       </c>
       <c r="P5" t="n">
-        <v>318.0787110813861</v>
+        <v>319.5332277892582</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25526,28 +25791,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.3199604805374814</v>
+        <v>0.2248841511833824</v>
       </c>
       <c r="J6" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K6" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006558179717646717</v>
+        <v>0.003267646795406143</v>
       </c>
       <c r="M6" t="n">
-        <v>26.88307489142098</v>
+        <v>27.03529262474472</v>
       </c>
       <c r="N6" t="n">
-        <v>916.7295138636351</v>
+        <v>925.2576110837551</v>
       </c>
       <c r="O6" t="n">
-        <v>30.27754141048502</v>
+        <v>30.41804745679372</v>
       </c>
       <c r="P6" t="n">
-        <v>291.645809373293</v>
+        <v>292.5254952340238</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25598,28 +25863,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.1695269853992052</v>
+        <v>0.1839650414109046</v>
       </c>
       <c r="J7" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K7" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003015985432706092</v>
+        <v>0.003633188539372778</v>
       </c>
       <c r="M7" t="n">
-        <v>17.53452170546356</v>
+        <v>17.37232996834396</v>
       </c>
       <c r="N7" t="n">
-        <v>521.7643121506154</v>
+        <v>516.1166570493851</v>
       </c>
       <c r="O7" t="n">
-        <v>22.84216084678977</v>
+        <v>22.71820100820893</v>
       </c>
       <c r="P7" t="n">
-        <v>311.507927193262</v>
+        <v>311.3642136302107</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25676,28 +25941,28 @@
         <v>0.0902</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1486083371917475</v>
+        <v>-0.1541015713032028</v>
       </c>
       <c r="J8" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K8" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002592458022891986</v>
+        <v>0.002858931865849623</v>
       </c>
       <c r="M8" t="n">
-        <v>15.48179685573576</v>
+        <v>15.3394383500869</v>
       </c>
       <c r="N8" t="n">
-        <v>457.3540146127597</v>
+        <v>451.5320756391745</v>
       </c>
       <c r="O8" t="n">
-        <v>21.3858367760712</v>
+        <v>21.24928412062803</v>
       </c>
       <c r="P8" t="n">
-        <v>324.3236158766995</v>
+        <v>324.3790609487586</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25754,28 +26019,28 @@
         <v>0.066</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07498416465852489</v>
+        <v>-0.2373054861667452</v>
       </c>
       <c r="J9" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K9" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006520234188670537</v>
+        <v>0.005964789212888233</v>
       </c>
       <c r="M9" t="n">
-        <v>13.7044547600754</v>
+        <v>14.8908409359511</v>
       </c>
       <c r="N9" t="n">
-        <v>508.7801930756299</v>
+        <v>561.6624234949551</v>
       </c>
       <c r="O9" t="n">
-        <v>22.5561564340122</v>
+        <v>23.69941821005223</v>
       </c>
       <c r="P9" t="n">
-        <v>330.3965414096695</v>
+        <v>331.942229839349</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25832,28 +26097,28 @@
         <v>0.1194</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1362699649459462</v>
+        <v>-0.2470055760641002</v>
       </c>
       <c r="J10" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K10" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00176505325662546</v>
+        <v>0.005686561082569597</v>
       </c>
       <c r="M10" t="n">
-        <v>19.1421916793073</v>
+        <v>19.58341537225268</v>
       </c>
       <c r="N10" t="n">
-        <v>563.6546534671248</v>
+        <v>580.6468215570343</v>
       </c>
       <c r="O10" t="n">
-        <v>23.7414122045662</v>
+        <v>24.09661431730678</v>
       </c>
       <c r="P10" t="n">
-        <v>318.1271582553751</v>
+        <v>319.2517530295909</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25904,28 +26169,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1024108631632994</v>
+        <v>-0.1722282324860393</v>
       </c>
       <c r="J11" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K11" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008032839267628766</v>
+        <v>0.002287738843090081</v>
       </c>
       <c r="M11" t="n">
-        <v>23.03019208031772</v>
+        <v>23.11171143740075</v>
       </c>
       <c r="N11" t="n">
-        <v>691.1160345168947</v>
+        <v>693.4656701312159</v>
       </c>
       <c r="O11" t="n">
-        <v>26.28908584407025</v>
+        <v>26.33373634961845</v>
       </c>
       <c r="P11" t="n">
-        <v>309.8165242098234</v>
+        <v>310.5401263779935</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25976,28 +26241,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.1916152084286052</v>
+        <v>-0.3072572083411472</v>
       </c>
       <c r="J12" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K12" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002939736470513932</v>
+        <v>0.007452720576559102</v>
       </c>
       <c r="M12" t="n">
-        <v>21.30741645557321</v>
+        <v>21.79874063647897</v>
       </c>
       <c r="N12" t="n">
-        <v>701.2108533931406</v>
+        <v>718.0238552196105</v>
       </c>
       <c r="O12" t="n">
-        <v>26.48038620173695</v>
+        <v>26.79596714469568</v>
       </c>
       <c r="P12" t="n">
-        <v>317.1790905033082</v>
+        <v>318.312823950613</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26054,28 +26319,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.920894628615308</v>
+        <v>-1.00383487741508</v>
       </c>
       <c r="J13" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K13" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01769191807311787</v>
+        <v>0.02110361654704529</v>
       </c>
       <c r="M13" t="n">
-        <v>46.11932926483905</v>
+        <v>46.10778958917864</v>
       </c>
       <c r="N13" t="n">
-        <v>2554.808030696694</v>
+        <v>2552.13978727578</v>
       </c>
       <c r="O13" t="n">
-        <v>50.54510887016363</v>
+        <v>50.51870730012576</v>
       </c>
       <c r="P13" t="n">
-        <v>296.5234880438895</v>
+        <v>297.3907187868764</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26132,28 +26397,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2862840382924077</v>
+        <v>-0.328217814587219</v>
       </c>
       <c r="J14" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K14" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005851837378977653</v>
+        <v>0.007733547415244013</v>
       </c>
       <c r="M14" t="n">
-        <v>23.73005733723634</v>
+        <v>23.75375759715034</v>
       </c>
       <c r="N14" t="n">
-        <v>778.1910071141417</v>
+        <v>778.0045040530749</v>
       </c>
       <c r="O14" t="n">
-        <v>27.89607512024123</v>
+        <v>27.89273210090892</v>
       </c>
       <c r="P14" t="n">
-        <v>301.1552314712554</v>
+        <v>301.5738650875193</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26204,28 +26469,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.1728578917653806</v>
+        <v>-0.2294095530843153</v>
       </c>
       <c r="J15" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K15" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002254184907722112</v>
+        <v>0.00399398837074616</v>
       </c>
       <c r="M15" t="n">
-        <v>23.31644335549813</v>
+        <v>23.31869929258628</v>
       </c>
       <c r="N15" t="n">
-        <v>759.9851637553562</v>
+        <v>760.6240161161966</v>
       </c>
       <c r="O15" t="n">
-        <v>27.56782841928896</v>
+        <v>27.57941290376205</v>
       </c>
       <c r="P15" t="n">
-        <v>302.7498886202478</v>
+        <v>303.3116201027768</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26282,28 +26547,28 @@
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1043481194600964</v>
+        <v>-0.1957306001097985</v>
       </c>
       <c r="J16" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K16" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004031593024717006</v>
+        <v>0.001430441703250573</v>
       </c>
       <c r="M16" t="n">
-        <v>33.88557371373982</v>
+        <v>33.95011849530945</v>
       </c>
       <c r="N16" t="n">
-        <v>1601.63161774673</v>
+        <v>1602.775824135232</v>
       </c>
       <c r="O16" t="n">
-        <v>40.02039002492018</v>
+        <v>40.0346827655126</v>
       </c>
       <c r="P16" t="n">
-        <v>301.3555780790309</v>
+        <v>302.2391685492544</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26354,28 +26619,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.9259257494649473</v>
+        <v>-0.9748328147027205</v>
       </c>
       <c r="J17" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K17" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0418229654889245</v>
+        <v>0.04696585479036208</v>
       </c>
       <c r="M17" t="n">
-        <v>28.87935850464038</v>
+        <v>28.61969085304809</v>
       </c>
       <c r="N17" t="n">
-        <v>1092.812657605042</v>
+        <v>1084.206241785622</v>
       </c>
       <c r="O17" t="n">
-        <v>33.05771706583869</v>
+        <v>32.92728719141044</v>
       </c>
       <c r="P17" t="n">
-        <v>309.9888369492203</v>
+        <v>310.4832088284077</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26426,28 +26691,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.1467669415146998</v>
+        <v>-0.1576928640910737</v>
       </c>
       <c r="J18" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K18" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005831280911388848</v>
+        <v>0.006826736161991809</v>
       </c>
       <c r="M18" t="n">
-        <v>11.18480103440128</v>
+        <v>11.14238550953008</v>
       </c>
       <c r="N18" t="n">
-        <v>203.8936020285383</v>
+        <v>202.7862952246315</v>
       </c>
       <c r="O18" t="n">
-        <v>14.27913169728952</v>
+        <v>14.24030530658074</v>
       </c>
       <c r="P18" t="n">
-        <v>320.5250680973976</v>
+        <v>320.6346429091714</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26504,28 +26769,28 @@
         <v>0.0788</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00652546491400321</v>
+        <v>0.03074975411204965</v>
       </c>
       <c r="J19" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K19" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L19" t="n">
-        <v>1.258421438099511e-05</v>
+        <v>0.0002823049467266525</v>
       </c>
       <c r="M19" t="n">
-        <v>10.20946608442322</v>
+        <v>10.19661176415585</v>
       </c>
       <c r="N19" t="n">
-        <v>184.7923813387691</v>
+        <v>184.7666096086088</v>
       </c>
       <c r="O19" t="n">
-        <v>13.59383615241735</v>
+        <v>13.59288819966562</v>
       </c>
       <c r="P19" t="n">
-        <v>341.5350998558964</v>
+        <v>341.2911319848035</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26582,28 +26847,28 @@
         <v>0.0834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1539545885183051</v>
+        <v>0.1881508025095713</v>
       </c>
       <c r="J20" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K20" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01122371371223252</v>
+        <v>0.01651328166254551</v>
       </c>
       <c r="M20" t="n">
-        <v>7.943009671481527</v>
+        <v>8.035917454281863</v>
       </c>
       <c r="N20" t="n">
-        <v>113.9005296866624</v>
+        <v>116.0549463843581</v>
       </c>
       <c r="O20" t="n">
-        <v>10.67241911127287</v>
+        <v>10.77288013413117</v>
       </c>
       <c r="P20" t="n">
-        <v>336.8303967834763</v>
+        <v>336.4818971819396</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26660,28 +26925,28 @@
         <v>0.0576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3155501521605045</v>
+        <v>0.3278048908561146</v>
       </c>
       <c r="J21" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K21" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02064615152627358</v>
+        <v>0.0226474058163868</v>
       </c>
       <c r="M21" t="n">
-        <v>11.72388031387715</v>
+        <v>11.72240374069668</v>
       </c>
       <c r="N21" t="n">
-        <v>266.3890093826187</v>
+        <v>264.545655368605</v>
       </c>
       <c r="O21" t="n">
-        <v>16.32142792106802</v>
+        <v>16.26485952501911</v>
       </c>
       <c r="P21" t="n">
-        <v>314.745853879944</v>
+        <v>314.6237695190018</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26732,28 +26997,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.03430866812387548</v>
+        <v>-0.1101981883505684</v>
       </c>
       <c r="J22" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K22" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L22" t="n">
-        <v>9.957931352622129e-05</v>
+        <v>0.001023072375603507</v>
       </c>
       <c r="M22" t="n">
-        <v>22.41445992530292</v>
+        <v>22.55470483029952</v>
       </c>
       <c r="N22" t="n">
-        <v>674.3223420881645</v>
+        <v>683.9301773178028</v>
       </c>
       <c r="O22" t="n">
-        <v>25.9677173060738</v>
+        <v>26.15205875868672</v>
       </c>
       <c r="P22" t="n">
-        <v>301.1761046690318</v>
+        <v>301.9189822901003</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26810,28 +27075,28 @@
         <v>0.0926</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3240401828265849</v>
+        <v>0.3415614758551559</v>
       </c>
       <c r="J23" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K23" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01849747550951242</v>
+        <v>0.02076648940650971</v>
       </c>
       <c r="M23" t="n">
-        <v>13.04945687731431</v>
+        <v>13.04229298183733</v>
       </c>
       <c r="N23" t="n">
-        <v>302.1051171994935</v>
+        <v>301.2639084621115</v>
       </c>
       <c r="O23" t="n">
-        <v>17.38117134141119</v>
+        <v>17.35695562194337</v>
       </c>
       <c r="P23" t="n">
-        <v>322.0696179478555</v>
+        <v>321.8902863141782</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26888,28 +27153,28 @@
         <v>0.0771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1485362890210307</v>
+        <v>0.1331824712626899</v>
       </c>
       <c r="J24" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K24" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009939328884152165</v>
+        <v>0.008061356611413273</v>
       </c>
       <c r="M24" t="n">
-        <v>8.251138249106315</v>
+        <v>8.29071636955276</v>
       </c>
       <c r="N24" t="n">
-        <v>120.5318960189066</v>
+        <v>120.7775161105193</v>
       </c>
       <c r="O24" t="n">
-        <v>10.97870192777391</v>
+        <v>10.98988244297997</v>
       </c>
       <c r="P24" t="n">
-        <v>339.0164644320878</v>
+        <v>339.1728685094287</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26947,7 +27212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y320"/>
+  <dimension ref="A1:Y323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57592,11 +57857,7 @@
           <t>-38.58339288776502,174.62991022807262</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>-38.58272738870233,174.63116524520524</t>
-        </is>
-      </c>
+      <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
           <t>-38.5819806112273,174.63055099031453</t>
@@ -57894,7 +58155,11 @@
           <t>2025-07-25 22:06:18+00:00</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr"/>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-38.58480885946078,174.63009399987462</t>
+        </is>
+      </c>
       <c r="C320" t="inlineStr">
         <is>
           <t>-38.58410581839021,174.63010373352884</t>
@@ -57998,6 +58263,371 @@
         </is>
       </c>
       <c r="Y320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-38.584825543211664,174.63043713206557</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-38.58411248090976,174.63024075591372</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-38.58340537759294,174.63016708521022</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-38.58198334388726,174.63098933437</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-38.581270088331976,174.6301677206686</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-38.5805676428853,174.63020776187597</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-38.5798605246653,174.63104138502987</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-38.579159389404104,174.63085632326892</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-38.57845762566507,174.6307769204756</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-38.577768159467794,174.63088908564885</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-38.576382124744164,174.63087721393288</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>-38.57568085697536,174.63093462283527</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>-38.574983614283234,174.63117896067487</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>-38.57429539462365,174.63107730422283</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>-38.57358704088232,174.63059298955366</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>-38.572857433011016,174.63009608457276</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>-38.57215398949581,174.63011081115337</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>-38.571459064260274,174.63038321527947</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>-38.57077345079567,174.63150579089512</t>
+        </is>
+      </c>
+      <c r="W321" t="inlineStr">
+        <is>
+          <t>-38.57005675727575,174.6306240889887</t>
+        </is>
+      </c>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>-38.56935432312908,174.63057970064466</t>
+        </is>
+      </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-38.58481225478343,174.63016382927046</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-38.58410970395107,174.63018364415643</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-38.58339599356234,174.62997409865233</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-38.58273449694586,174.6313775758526</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-38.58198092078229,174.63060063257925</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-38.581270439347044,174.63010797815065</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-38.58056836681918,174.6300845477201</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-38.579863224541924,174.63058229861423</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-38.57916129742087,174.63053182213412</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-38.578459337681245,174.63048572093177</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-38.57776654586559,174.6305915763068</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-38.57708996654368,174.63130117098476</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>-38.57637838934104,174.63070404500198</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>-38.57567715278062,174.63076290059598</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>-38.57497856494158,174.63094486442114</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>-38.57428526037825,174.6307897612838</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>-38.573573869865974,174.63034225682</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>-38.572847976113394,174.62992757477468</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>-38.57214789160561,174.6299846907835</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>-38.57146685264405,174.63065158600563</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>-38.570765140362276,174.63103009068593</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr">
+        <is>
+          <t>-38.57004997105418,174.63028966234106</t>
+        </is>
+      </c>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>-38.569348619724856,174.63033288605033</t>
+        </is>
+      </c>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-38.584091426018425,174.62980774920507</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-38.583396294391086,174.62998028521994</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-38.582731064766314,174.63127505162615</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-38.58198124713422,174.63065297216892</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-38.581271299053356,174.62996163479988</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-38.5805684241349,174.63007479159194</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-38.57986453676588,174.63035905766165</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-38.579161657199876,174.63047061647129</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>-38.57845957466511,174.6304454022531</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>-38.57776629562037,174.6305454496149</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>-38.577087667480185,174.63118109401918</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr"/>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>-38.5756740355426,174.63061839807364</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>-38.57497199935355,174.6306405048967</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>-38.574286831881615,174.63083434884805</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>-38.57357776329381,174.63041637377495</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>-38.57285921257659,174.63012779464063</t>
+        </is>
+      </c>
+      <c r="T323" t="inlineStr">
+        <is>
+          <t>-38.57215457656978,174.6301229535332</t>
+        </is>
+      </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>-38.57145917410074,174.63038699999458</t>
+        </is>
+      </c>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>-38.570765415002334,174.63104580967433</t>
+        </is>
+      </c>
+      <c r="W323" t="inlineStr">
+        <is>
+          <t>-38.570050632258166,174.6303222445586</t>
+        </is>
+      </c>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t>-38.5693533113156,174.6305359128073</t>
+        </is>
+      </c>
+      <c r="Y323" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y323"/>
+  <dimension ref="A1:Y324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21698,9 +21698,7 @@
       <c r="D322" t="n">
         <v>321.99</v>
       </c>
-      <c r="E322" t="n">
-        <v>205.42</v>
-      </c>
+      <c r="E322" t="inlineStr"/>
       <c r="F322" t="n">
         <v>276.01</v>
       </c>
@@ -21770,16 +21768,16 @@
           <t>2025-08-26 22:06:33+00:00</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr"/>
+      <c r="B323" t="n">
+        <v>348.56</v>
+      </c>
       <c r="C323" t="n">
         <v>330.74</v>
       </c>
       <c r="D323" t="n">
         <v>321.45</v>
       </c>
-      <c r="E323" t="n">
-        <v>214.36</v>
-      </c>
+      <c r="E323" t="inlineStr"/>
       <c r="F323" t="n">
         <v>271.45</v>
       </c>
@@ -21838,6 +21836,81 @@
       <c r="Y323" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>345.8</v>
+      </c>
+      <c r="C324" t="n">
+        <v>335.94</v>
+      </c>
+      <c r="D324" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="E324" t="n">
+        <v>297.19</v>
+      </c>
+      <c r="F324" t="n">
+        <v>287.67</v>
+      </c>
+      <c r="G324" t="n">
+        <v>310.38</v>
+      </c>
+      <c r="H324" t="n">
+        <v>324.2</v>
+      </c>
+      <c r="I324" t="n">
+        <v>312.0418181818182</v>
+      </c>
+      <c r="J324" t="n">
+        <v>318.8105263157895</v>
+      </c>
+      <c r="K324" t="n">
+        <v>314.2157142857143</v>
+      </c>
+      <c r="L324" t="n">
+        <v>310.6685542168674</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="n">
+        <v>311.0993103448276</v>
+      </c>
+      <c r="O324" t="n">
+        <v>317.595</v>
+      </c>
+      <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="n">
+        <v>283.5058823529412</v>
+      </c>
+      <c r="R324" t="n">
+        <v>318.99</v>
+      </c>
+      <c r="S324" t="n">
+        <v>350.22</v>
+      </c>
+      <c r="T324" t="n">
+        <v>343.46</v>
+      </c>
+      <c r="U324" t="n">
+        <v>344.99</v>
+      </c>
+      <c r="V324" t="n">
+        <v>318.93</v>
+      </c>
+      <c r="W324" t="inlineStr"/>
+      <c r="X324" t="n">
+        <v>337.2328571428571</v>
+      </c>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21852,7 +21925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25329,6 +25402,16 @@
         </is>
       </c>
       <c r="B347" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -27212,7 +27295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y323"/>
+  <dimension ref="A1:Y324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58408,11 +58491,7 @@
           <t>-38.58339599356234,174.62997409865233</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>-38.58273449694586,174.6313775758526</t>
-        </is>
-      </c>
+      <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
           <t>-38.58198092078229,174.63060063257925</t>
@@ -58520,7 +58599,11 @@
           <t>2025-08-26 22:06:33+00:00</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-38.584781798441945,174.62953748440435</t>
+        </is>
+      </c>
       <c r="C323" t="inlineStr">
         <is>
           <t>-38.584091426018425,174.62980774920507</t>
@@ -58531,11 +58614,7 @@
           <t>-38.583396294391086,174.62998028521994</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>-38.582731064766314,174.63127505162615</t>
-        </is>
-      </c>
+      <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
           <t>-38.58198124713422,174.63065297216892</t>
@@ -58630,6 +58709,121 @@
       <c r="Y323" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-38.584783336102674,174.62956910524383</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-38.584088529069305,174.6297481742797</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-38.5833950966451,174.62995565351588</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-38.58269926099444,174.63032515465923</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-38.58198008618818,174.63046679932847</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-38.58126983980432,174.6302100167634</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-38.58056853943819,174.63005516455752</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-38.57986548035932,174.63019848484896</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-38.5791636907411,174.63012456764307</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>-38.57846112796774,174.63018107632152</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>-38.57776455911968,174.63022545976818</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>-38.576369350550976,174.63028506650733</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>-38.57566599598081,174.63024575483672</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>-38.57428233007677,174.63070662244235</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>-38.573575092409236,174.6303655295784</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>-38.57285666850185,174.6300824618364</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>-38.57215997648324,174.6302346405244</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>-38.57145590546215,174.6302743760508</t>
+        </is>
+      </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>-38.57075769621029,174.63060407169564</t>
+        </is>
+      </c>
+      <c r="W324" t="inlineStr"/>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>-38.569351590967784,174.63046146365267</t>
+        </is>
+      </c>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -25580,28 +25580,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4656409460757984</v>
+        <v>0.4751965794524003</v>
       </c>
       <c r="J2" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01929996047598292</v>
+        <v>0.0204735958472213</v>
       </c>
       <c r="M2" t="n">
-        <v>18.10828170527875</v>
+        <v>17.95095507804803</v>
       </c>
       <c r="N2" t="n">
-        <v>621.5555779170595</v>
+        <v>615.3919910698655</v>
       </c>
       <c r="O2" t="n">
-        <v>24.93101638355443</v>
+        <v>24.80709557908514</v>
       </c>
       <c r="P2" t="n">
-        <v>330.1530326836932</v>
+        <v>330.0591518543889</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25652,28 +25652,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.007404078590037707</v>
+        <v>-0.0004253854270767273</v>
       </c>
       <c r="J3" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L3" t="n">
-        <v>7.376483290633118e-06</v>
+        <v>2.453492653486933e-08</v>
       </c>
       <c r="M3" t="n">
-        <v>16.23009163282102</v>
+        <v>16.18152761896343</v>
       </c>
       <c r="N3" t="n">
-        <v>424.8054703007008</v>
+        <v>423.2231521583538</v>
       </c>
       <c r="O3" t="n">
-        <v>20.61080954986244</v>
+        <v>20.57238810051847</v>
       </c>
       <c r="P3" t="n">
-        <v>327.4999765925668</v>
+        <v>327.4311378400447</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25730,28 +25730,28 @@
         <v>0.0931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1296468413895769</v>
+        <v>0.1293047779797771</v>
       </c>
       <c r="J4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004020338858573114</v>
+        <v>0.00403227347980073</v>
       </c>
       <c r="M4" t="n">
-        <v>11.57548760137306</v>
+        <v>11.52729448225504</v>
       </c>
       <c r="N4" t="n">
-        <v>234.7615753648726</v>
+        <v>233.7416709892345</v>
       </c>
       <c r="O4" t="n">
-        <v>15.32193118914429</v>
+        <v>15.28861246121552</v>
       </c>
       <c r="P4" t="n">
-        <v>320.6945968620639</v>
+        <v>320.6979927729783</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25802,28 +25802,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1629479803076547</v>
+        <v>0.4006773194764951</v>
       </c>
       <c r="J5" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004531351965218811</v>
+        <v>0.05015632368945233</v>
       </c>
       <c r="M5" t="n">
-        <v>11.64988647574264</v>
+        <v>10.10002846760396</v>
       </c>
       <c r="N5" t="n">
-        <v>355.2946930904618</v>
+        <v>184.1307677156912</v>
       </c>
       <c r="O5" t="n">
-        <v>18.84926240176156</v>
+        <v>13.56947927209041</v>
       </c>
       <c r="P5" t="n">
-        <v>319.5332277892582</v>
+        <v>317.3325233521169</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25874,28 +25874,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.2248841511833824</v>
+        <v>0.2157182187275373</v>
       </c>
       <c r="J6" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K6" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003267646795406143</v>
+        <v>0.003034291136808864</v>
       </c>
       <c r="M6" t="n">
-        <v>27.03529262474472</v>
+        <v>26.9576741723553</v>
       </c>
       <c r="N6" t="n">
-        <v>925.2576110837551</v>
+        <v>921.3833952821428</v>
       </c>
       <c r="O6" t="n">
-        <v>30.41804745679372</v>
+        <v>30.35429780578268</v>
       </c>
       <c r="P6" t="n">
-        <v>292.5254952340238</v>
+        <v>292.6108102121835</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25946,28 +25946,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.1839650414109046</v>
+        <v>0.1793539789744681</v>
       </c>
       <c r="J7" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K7" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003633188539372778</v>
+        <v>0.003482120427184432</v>
       </c>
       <c r="M7" t="n">
-        <v>17.37232996834396</v>
+        <v>17.32950718865543</v>
       </c>
       <c r="N7" t="n">
-        <v>516.1166570493851</v>
+        <v>514.01305549247</v>
       </c>
       <c r="O7" t="n">
-        <v>22.71820100820893</v>
+        <v>22.67185602222434</v>
       </c>
       <c r="P7" t="n">
-        <v>311.3642136302107</v>
+        <v>311.4102723911017</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26024,28 +26024,28 @@
         <v>0.0902</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1541015713032028</v>
+        <v>-0.150898544822721</v>
       </c>
       <c r="J8" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K8" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002858931865849623</v>
+        <v>0.002765118731146265</v>
       </c>
       <c r="M8" t="n">
-        <v>15.3394383500869</v>
+        <v>15.28002549883738</v>
       </c>
       <c r="N8" t="n">
-        <v>451.5320756391745</v>
+        <v>449.5439826324935</v>
       </c>
       <c r="O8" t="n">
-        <v>21.24928412062803</v>
+        <v>21.20245227874581</v>
       </c>
       <c r="P8" t="n">
-        <v>324.3790609487586</v>
+        <v>324.3464689166778</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26102,28 +26102,28 @@
         <v>0.066</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2373054861667452</v>
+        <v>-0.2504037797887733</v>
       </c>
       <c r="J9" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K9" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005964789212888233</v>
+        <v>0.006690309767678371</v>
       </c>
       <c r="M9" t="n">
-        <v>14.8908409359511</v>
+        <v>14.92631864746345</v>
       </c>
       <c r="N9" t="n">
-        <v>561.6624234949551</v>
+        <v>559.5943088133354</v>
       </c>
       <c r="O9" t="n">
-        <v>23.69941821005223</v>
+        <v>23.65574578856764</v>
       </c>
       <c r="P9" t="n">
-        <v>331.942229839349</v>
+        <v>332.0677885797658</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26180,28 +26180,28 @@
         <v>0.1194</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2470055760641002</v>
+        <v>-0.2414210774172436</v>
       </c>
       <c r="J10" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K10" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005686561082569597</v>
+        <v>0.005484431118868871</v>
       </c>
       <c r="M10" t="n">
-        <v>19.58341537225268</v>
+        <v>19.50630694973876</v>
       </c>
       <c r="N10" t="n">
-        <v>580.6468215570343</v>
+        <v>577.8602676937522</v>
       </c>
       <c r="O10" t="n">
-        <v>24.09661431730678</v>
+        <v>24.03872433582432</v>
       </c>
       <c r="P10" t="n">
-        <v>319.2517530295909</v>
+        <v>319.1947089295383</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26252,28 +26252,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1722282324860393</v>
+        <v>-0.1652017321027111</v>
       </c>
       <c r="J11" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K11" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002287738843090081</v>
+        <v>0.002122475058795925</v>
       </c>
       <c r="M11" t="n">
-        <v>23.11171143740075</v>
+        <v>23.03724438528418</v>
       </c>
       <c r="N11" t="n">
-        <v>693.4656701312159</v>
+        <v>690.4865333370116</v>
       </c>
       <c r="O11" t="n">
-        <v>26.33373634961845</v>
+        <v>26.27711044496734</v>
       </c>
       <c r="P11" t="n">
-        <v>310.5401263779935</v>
+        <v>310.4668616677492</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26324,28 +26324,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.3072572083411472</v>
+        <v>-0.3070095879497141</v>
       </c>
       <c r="J12" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K12" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007452720576559102</v>
+        <v>0.007513485201222414</v>
       </c>
       <c r="M12" t="n">
-        <v>21.79874063647897</v>
+        <v>21.68558017190581</v>
       </c>
       <c r="N12" t="n">
-        <v>718.0238552196105</v>
+        <v>714.264925403744</v>
       </c>
       <c r="O12" t="n">
-        <v>26.79596714469568</v>
+        <v>26.72573526404361</v>
       </c>
       <c r="P12" t="n">
-        <v>318.312823950613</v>
+        <v>318.310381734078</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26405,7 +26405,7 @@
         <v>-1.00383487741508</v>
       </c>
       <c r="J13" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K13" t="n">
         <v>199</v>
@@ -26480,28 +26480,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.328217814587219</v>
+        <v>-0.314151716621258</v>
       </c>
       <c r="J14" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K14" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007733547415244013</v>
+        <v>0.007132918343247696</v>
       </c>
       <c r="M14" t="n">
-        <v>23.75375759715034</v>
+        <v>23.7283172141219</v>
       </c>
       <c r="N14" t="n">
-        <v>778.0045040530749</v>
+        <v>775.9915105102637</v>
       </c>
       <c r="O14" t="n">
-        <v>27.89273210090892</v>
+        <v>27.85662417649101</v>
       </c>
       <c r="P14" t="n">
-        <v>301.5738650875193</v>
+        <v>301.4324741808077</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26552,28 +26552,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.2294095530843153</v>
+        <v>-0.2150926762165896</v>
       </c>
       <c r="J15" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K15" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00399398837074616</v>
+        <v>0.003529494685079571</v>
       </c>
       <c r="M15" t="n">
-        <v>23.31869929258628</v>
+        <v>23.31437821841055</v>
       </c>
       <c r="N15" t="n">
-        <v>760.6240161161966</v>
+        <v>759.1213283499744</v>
       </c>
       <c r="O15" t="n">
-        <v>27.57941290376205</v>
+        <v>27.55215650997167</v>
       </c>
       <c r="P15" t="n">
-        <v>303.3116201027768</v>
+        <v>303.1684281697669</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26633,7 +26633,7 @@
         <v>-0.1957306001097985</v>
       </c>
       <c r="J16" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K16" t="n">
         <v>200</v>
@@ -26702,28 +26702,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.9748328147027205</v>
+        <v>-0.9763973915858383</v>
       </c>
       <c r="J17" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K17" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04696585479036208</v>
+        <v>0.04747830395802888</v>
       </c>
       <c r="M17" t="n">
-        <v>28.61969085304809</v>
+        <v>28.48840691150209</v>
       </c>
       <c r="N17" t="n">
-        <v>1084.206241785622</v>
+        <v>1079.06013196485</v>
       </c>
       <c r="O17" t="n">
-        <v>32.92728719141044</v>
+        <v>32.84905070112148</v>
       </c>
       <c r="P17" t="n">
-        <v>310.4832088284077</v>
+        <v>310.499126963617</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26774,28 +26774,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.1576928640910737</v>
+        <v>-0.1559982186683811</v>
       </c>
       <c r="J18" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K18" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006826736161991809</v>
+        <v>0.006728265972098302</v>
       </c>
       <c r="M18" t="n">
-        <v>11.14238550953008</v>
+        <v>11.10856740646464</v>
       </c>
       <c r="N18" t="n">
-        <v>202.7862952246315</v>
+        <v>202.0106091643852</v>
       </c>
       <c r="O18" t="n">
-        <v>14.24030530658074</v>
+        <v>14.21304362775212</v>
       </c>
       <c r="P18" t="n">
-        <v>320.6346429091714</v>
+        <v>320.6175259009897</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26852,28 +26852,28 @@
         <v>0.0788</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03074975411204965</v>
+        <v>0.03655605662791166</v>
       </c>
       <c r="J19" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K19" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002823049467266525</v>
+        <v>0.0004013021138005168</v>
       </c>
       <c r="M19" t="n">
-        <v>10.19661176415585</v>
+        <v>10.18221420843404</v>
       </c>
       <c r="N19" t="n">
-        <v>184.7666096086088</v>
+        <v>184.3024652088293</v>
       </c>
       <c r="O19" t="n">
-        <v>13.59288819966562</v>
+        <v>13.57580440374821</v>
       </c>
       <c r="P19" t="n">
-        <v>341.2911319848035</v>
+        <v>341.2323177411185</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26930,28 +26930,28 @@
         <v>0.0834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1881508025095713</v>
+        <v>0.1895991479379731</v>
       </c>
       <c r="J20" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K20" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01651328166254551</v>
+        <v>0.01687382252390035</v>
       </c>
       <c r="M20" t="n">
-        <v>8.035917454281863</v>
+        <v>8.013385819715072</v>
       </c>
       <c r="N20" t="n">
-        <v>116.0549463843581</v>
+        <v>115.6340376364185</v>
       </c>
       <c r="O20" t="n">
-        <v>10.77288013413117</v>
+        <v>10.75332681714912</v>
       </c>
       <c r="P20" t="n">
-        <v>336.4818971819396</v>
+        <v>336.4670518768945</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27008,28 +27008,28 @@
         <v>0.0576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3278048908561146</v>
+        <v>0.3465595174906309</v>
       </c>
       <c r="J21" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K21" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0226474058163868</v>
+        <v>0.02524141155118609</v>
       </c>
       <c r="M21" t="n">
-        <v>11.72240374069668</v>
+        <v>11.76704485240947</v>
       </c>
       <c r="N21" t="n">
-        <v>264.545655368605</v>
+        <v>265.5746222577293</v>
       </c>
       <c r="O21" t="n">
-        <v>16.26485952501911</v>
+        <v>16.29646042113837</v>
       </c>
       <c r="P21" t="n">
-        <v>314.6237695190018</v>
+        <v>314.4359555076484</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27080,28 +27080,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.1101981883505684</v>
+        <v>-0.09489660922061108</v>
       </c>
       <c r="J22" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K22" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001023072375603507</v>
+        <v>0.0007630274333054743</v>
       </c>
       <c r="M22" t="n">
-        <v>22.55470483029952</v>
+        <v>22.54107852454424</v>
       </c>
       <c r="N22" t="n">
-        <v>683.9301773178028</v>
+        <v>682.6426301505871</v>
       </c>
       <c r="O22" t="n">
-        <v>26.15205875868672</v>
+        <v>26.12743060751644</v>
       </c>
       <c r="P22" t="n">
-        <v>301.9189822901003</v>
+        <v>301.7682302849325</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27161,7 +27161,7 @@
         <v>0.3415614758551559</v>
       </c>
       <c r="J23" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K23" t="n">
         <v>246</v>
@@ -27236,28 +27236,28 @@
         <v>0.0771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1331824712626899</v>
+        <v>0.129498538337308</v>
       </c>
       <c r="J24" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K24" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008061356611413273</v>
+        <v>0.007669732784563621</v>
       </c>
       <c r="M24" t="n">
-        <v>8.29071636955276</v>
+        <v>8.280461634313538</v>
       </c>
       <c r="N24" t="n">
-        <v>120.7775161105193</v>
+        <v>120.4212495198231</v>
       </c>
       <c r="O24" t="n">
-        <v>10.98988244297997</v>
+        <v>10.97366162772587</v>
       </c>
       <c r="P24" t="n">
-        <v>339.1728685094287</v>
+        <v>339.2106083990095</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">

--- a/data/nzd0264/nzd0264.xlsx
+++ b/data/nzd0264/nzd0264.xlsx
@@ -25576,9 +25576,15 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0288</v>
+      </c>
       <c r="I2" t="n">
         <v>0.4752565989005157</v>
       </c>
@@ -25648,9 +25654,15 @@
       <c r="E3" t="n">
         <v>0.9545430584828782</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0389</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.0003764046543973624</v>
       </c>
@@ -25721,13 +25733,13 @@
         <v>0.9090861169657564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.023</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0931</v>
+        <v>0.0311</v>
       </c>
       <c r="I4" t="n">
         <v>0.1293019251255232</v>
@@ -25798,9 +25810,15 @@
       <c r="E5" t="n">
         <v>0.8636291754486345</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0236</v>
+      </c>
       <c r="I5" t="n">
         <v>0.4006998585049161</v>
       </c>
@@ -25870,9 +25888,15 @@
       <c r="E6" t="n">
         <v>0.8181993111752635</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.031</v>
+      </c>
       <c r="I6" t="n">
         <v>0.2157766377000193</v>
       </c>
@@ -25942,9 +25966,15 @@
       <c r="E7" t="n">
         <v>0.7727423696577844</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0317</v>
+      </c>
       <c r="I7" t="n">
         <v>0.1793314257888976</v>
       </c>
@@ -26015,13 +26045,13 @@
         <v>0.7272854281403055</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0741</v>
+        <v>0.0268</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0902</v>
+        <v>0.0465</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1509828526765423</v>
@@ -26093,13 +26123,13 @@
         <v>0.6818284866228265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05</v>
+        <v>0.0241</v>
       </c>
       <c r="H9" t="n">
-        <v>0.066</v>
+        <v>0.0404</v>
       </c>
       <c r="I9" t="n">
         <v>-0.250422867851604</v>
@@ -26171,13 +26201,13 @@
         <v>0.6363715451053474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.095</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0761</v>
+        <v>0.0334</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1194</v>
+        <v>0.0871</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2414420857642294</v>
@@ -26248,9 +26278,15 @@
       <c r="E11" t="n">
         <v>0.5909146035882847</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.09569999999999999</v>
+      </c>
       <c r="I11" t="n">
         <v>-0.1651909712858196</v>
       </c>
@@ -26320,9 +26356,15 @@
       <c r="E12" t="n">
         <v>0.5454576620708057</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0329</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0693</v>
+      </c>
       <c r="I12" t="n">
         <v>-0.3069923026543077</v>
       </c>
@@ -26393,13 +26435,13 @@
         <v>0.5000047654073232</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0948</v>
+        <v>0.0246</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.0379</v>
       </c>
       <c r="I13" t="n">
         <v>-1.003841252278824</v>
@@ -26471,13 +26513,13 @@
         <v>0.4545478238898796</v>
       </c>
       <c r="F14" t="n">
-        <v>0.145</v>
+        <v>0.055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1044</v>
+        <v>0.0394</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.0837</v>
       </c>
       <c r="I14" t="n">
         <v>-0.3141432012992811</v>
@@ -26548,9 +26590,15 @@
       <c r="E15" t="n">
         <v>0.409090882372436</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1203</v>
+      </c>
       <c r="I15" t="n">
         <v>-0.2150777022085677</v>
       </c>
@@ -26621,13 +26669,13 @@
         <v>0.3636339408549925</v>
       </c>
       <c r="F16" t="n">
-        <v>0.175</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1042</v>
+        <v>0.0322</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2</v>
+        <v>0.0558</v>
       </c>
       <c r="I16" t="n">
         <v>-0.1957327072541011</v>
@@ -26698,9 +26746,15 @@
       <c r="E17" t="n">
         <v>0.3181769993375489</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0439</v>
+      </c>
       <c r="I17" t="n">
         <v>-0.976374730536971</v>
       </c>
@@ -26770,9 +26824,15 @@
       <c r="E18" t="n">
         <v>0.2727272681700844</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0493</v>
+      </c>
       <c r="I18" t="n">
         <v>-0.1560001678527833</v>
       </c>
@@ -26843,13 +26903,13 @@
         <v>0.2272703266529285</v>
       </c>
       <c r="F19" t="n">
-        <v>0.075</v>
+        <v>0.035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0689</v>
+        <v>0.0306</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0788</v>
+        <v>0.0427</v>
       </c>
       <c r="I19" t="n">
         <v>0.03655429327134925</v>
@@ -26921,13 +26981,13 @@
         <v>0.1818133851354912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.075</v>
+        <v>0.03</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0673</v>
+        <v>0.0277</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0834</v>
+        <v>0.0354</v>
       </c>
       <c r="I20" t="n">
         <v>0.189599126915698</v>
@@ -26999,13 +27059,13 @@
         <v>0.1363696492823487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="G21" t="n">
-        <v>0.042</v>
+        <v>0.024</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0576</v>
+        <v>0.0319</v>
       </c>
       <c r="I21" t="n">
         <v>0.3465595174906309</v>
@@ -27076,9 +27136,15 @@
       <c r="E22" t="n">
         <v>0.09091270776486224</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0299</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0467</v>
+      </c>
       <c r="I22" t="n">
         <v>-0.09489660922061108</v>
       </c>
@@ -27149,13 +27215,13 @@
         <v>0.04545576624737579</v>
       </c>
       <c r="F23" t="n">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.0371</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0926</v>
+        <v>0.0626</v>
       </c>
       <c r="I23" t="n">
         <v>0.3415790441582544</v>
@@ -27227,13 +27293,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0614</v>
+        <v>0.0419</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0771</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="I24" t="n">
         <v>0.1294848582950973</v>
